--- a/庫存明細表.xlsx
+++ b/庫存明細表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\03-2 生管室\16-週報資料夾\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A66E00-0283-4BC0-82DF-62D7F80141D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D81F746-A825-4D91-BA39-8F8119DA0373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="410">
   <si>
     <t>儲盈電池製造股份有限公司</t>
   </si>
@@ -41,10 +41,10 @@
     <t>庫存明細表</t>
   </si>
   <si>
-    <t>製表日期: 2025/12/29</t>
-  </si>
-  <si>
-    <t>資料日期: 2026/01/29</t>
+    <t>製表日期: 2026/01/05</t>
+  </si>
+  <si>
+    <t>資料日期: 2026/01/30</t>
   </si>
   <si>
     <t>第1頁</t>
@@ -386,16 +386,10 @@
     <t>鐵件,SPCC,341x170.6x248.8mm,t=1.0mm,黑,粉烤,卡扣版</t>
   </si>
   <si>
-    <t>TW40203006-A3</t>
+    <t>TW40203042-A1</t>
   </si>
   <si>
     <t>電池固定座</t>
-  </si>
-  <si>
-    <t>PC+ABS,台化出光,AC3100,黑色</t>
-  </si>
-  <si>
-    <t>TW40203042-A1</t>
   </si>
   <si>
     <t>PC+ABS,台化出光 AC3100,一體式 8P,572.3x126.5x45.3mm,t=3mm,黑色,SPI B-1,八個溫度點,久勝</t>
@@ -1684,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O370"/>
+  <dimension ref="A1:O368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2544,7 +2538,7 @@
         <v>55</v>
       </c>
       <c r="H24" s="4">
-        <v>2030</v>
+        <v>1210</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
@@ -2579,7 +2573,7 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="4">
-        <v>2030</v>
+        <v>1210</v>
       </c>
       <c r="I25" s="5">
         <v>0</v>
@@ -2749,7 +2743,7 @@
         <v>55</v>
       </c>
       <c r="H29" s="4">
-        <v>11400</v>
+        <v>7560</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
@@ -2919,7 +2913,7 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="4">
-        <v>11801</v>
+        <v>7961</v>
       </c>
       <c r="I33" s="5">
         <v>0</v>
@@ -3489,7 +3483,7 @@
         <v>55</v>
       </c>
       <c r="H47" s="4">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="I47" s="5">
         <v>0</v>
@@ -3569,7 +3563,7 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="4">
-        <v>1924</v>
+        <v>284</v>
       </c>
       <c r="I49" s="5">
         <v>0</v>
@@ -3694,7 +3688,7 @@
         <v>55</v>
       </c>
       <c r="H52" s="4">
-        <v>979</v>
+        <v>159</v>
       </c>
       <c r="I52" s="5">
         <v>0</v>
@@ -3729,7 +3723,7 @@
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="4">
-        <v>979</v>
+        <v>159</v>
       </c>
       <c r="I53" s="5">
         <v>0</v>
@@ -3854,7 +3848,7 @@
         <v>55</v>
       </c>
       <c r="H56" s="4">
-        <v>1963</v>
+        <v>323</v>
       </c>
       <c r="I56" s="5">
         <v>0</v>
@@ -3934,7 +3928,7 @@
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="4">
-        <v>1964</v>
+        <v>324</v>
       </c>
       <c r="I58" s="5">
         <v>0</v>
@@ -4469,7 +4463,7 @@
         <v>55</v>
       </c>
       <c r="H71" s="4">
-        <v>1260</v>
+        <v>440</v>
       </c>
       <c r="I71" s="5">
         <v>0</v>
@@ -4504,7 +4498,7 @@
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="4">
-        <v>1260</v>
+        <v>440</v>
       </c>
       <c r="I72" s="5">
         <v>0</v>
@@ -5244,7 +5238,7 @@
         <v>55</v>
       </c>
       <c r="H90" s="4">
-        <v>954</v>
+        <v>134</v>
       </c>
       <c r="I90" s="5">
         <v>0</v>
@@ -5324,7 +5318,7 @@
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="4">
-        <v>960</v>
+        <v>140</v>
       </c>
       <c r="I92" s="5">
         <v>0</v>
@@ -5369,7 +5363,7 @@
         <v>55</v>
       </c>
       <c r="H93" s="4">
-        <v>780</v>
+        <v>2478</v>
       </c>
       <c r="I93" s="5">
         <v>0</v>
@@ -5404,7 +5398,7 @@
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="4">
-        <v>780</v>
+        <v>2478</v>
       </c>
       <c r="I94" s="5">
         <v>0</v>
@@ -5436,7 +5430,7 @@
         <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>23</v>
@@ -5449,7 +5443,7 @@
         <v>55</v>
       </c>
       <c r="H95" s="4">
-        <v>2478</v>
+        <v>1984</v>
       </c>
       <c r="I95" s="5">
         <v>0</v>
@@ -5484,7 +5478,7 @@
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="4">
-        <v>2478</v>
+        <v>1984</v>
       </c>
       <c r="I96" s="5">
         <v>0</v>
@@ -5510,13 +5504,13 @@
     </row>
     <row r="97" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>23</v>
@@ -5529,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="H97" s="4">
-        <v>1984</v>
+        <v>2220</v>
       </c>
       <c r="I97" s="5">
         <v>0</v>
@@ -5564,7 +5558,7 @@
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="4">
-        <v>1984</v>
+        <v>2220</v>
       </c>
       <c r="I98" s="5">
         <v>0</v>
@@ -5590,10 +5584,10 @@
     </row>
     <row r="99" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>125</v>
@@ -5609,7 +5603,7 @@
         <v>55</v>
       </c>
       <c r="H99" s="4">
-        <v>2220</v>
+        <v>4070</v>
       </c>
       <c r="I99" s="5">
         <v>0</v>
@@ -5644,7 +5638,7 @@
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="4">
-        <v>2220</v>
+        <v>4070</v>
       </c>
       <c r="I100" s="5">
         <v>0</v>
@@ -5673,10 +5667,10 @@
         <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>23</v>
@@ -5689,7 +5683,7 @@
         <v>55</v>
       </c>
       <c r="H101" s="4">
-        <v>4890</v>
+        <v>1800</v>
       </c>
       <c r="I101" s="5">
         <v>0</v>
@@ -5724,7 +5718,7 @@
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="4">
-        <v>4890</v>
+        <v>1800</v>
       </c>
       <c r="I102" s="5">
         <v>0</v>
@@ -5750,10 +5744,10 @@
     </row>
     <row r="103" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>130</v>
@@ -5769,7 +5763,7 @@
         <v>55</v>
       </c>
       <c r="H103" s="4">
-        <v>1800</v>
+        <v>1671</v>
       </c>
       <c r="I103" s="5">
         <v>0</v>
@@ -5804,7 +5798,7 @@
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="4">
-        <v>1800</v>
+        <v>1671</v>
       </c>
       <c r="I104" s="5">
         <v>0</v>
@@ -5833,10 +5827,10 @@
         <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>23</v>
@@ -5849,7 +5843,7 @@
         <v>55</v>
       </c>
       <c r="H105" s="4">
-        <v>1671</v>
+        <v>603</v>
       </c>
       <c r="I105" s="5">
         <v>0</v>
@@ -5874,17 +5868,27 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H106" s="4">
-        <v>1671</v>
+        <v>1</v>
       </c>
       <c r="I106" s="5">
         <v>0</v>
@@ -5909,27 +5913,17 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G107" s="2"/>
       <c r="H107" s="4">
-        <v>1423</v>
+        <v>604</v>
       </c>
       <c r="I107" s="5">
         <v>0</v>
@@ -5955,10 +5949,10 @@
     </row>
     <row r="108" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>135</v>
@@ -5968,13 +5962,13 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H108" s="4">
-        <v>1</v>
+        <v>522</v>
       </c>
       <c r="I108" s="5">
         <v>0</v>
@@ -6009,7 +6003,7 @@
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="4">
-        <v>1424</v>
+        <v>522</v>
       </c>
       <c r="I109" s="5">
         <v>0</v>
@@ -6038,7 +6032,7 @@
         <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>137</v>
@@ -6054,7 +6048,7 @@
         <v>55</v>
       </c>
       <c r="H110" s="4">
-        <v>1342</v>
+        <v>352</v>
       </c>
       <c r="I110" s="5">
         <v>0</v>
@@ -6079,17 +6073,27 @@
       </c>
     </row>
     <row r="111" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="A111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H111" s="4">
-        <v>1342</v>
+        <v>1</v>
       </c>
       <c r="I111" s="5">
         <v>0</v>
@@ -6114,27 +6118,17 @@
       </c>
     </row>
     <row r="112" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G112" s="2"/>
       <c r="H112" s="4">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I112" s="5">
         <v>0</v>
@@ -6163,7 +6157,7 @@
         <v>138</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>139</v>
@@ -6173,13 +6167,13 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H113" s="4">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="I113" s="5">
         <v>0</v>
@@ -6243,10 +6237,10 @@
         <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>23</v>
@@ -6259,7 +6253,7 @@
         <v>55</v>
       </c>
       <c r="H115" s="4">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="I115" s="5">
         <v>0</v>
@@ -6284,17 +6278,27 @@
       </c>
     </row>
     <row r="116" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="A116" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H116" s="4">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="I116" s="5">
         <v>0</v>
@@ -6319,27 +6323,17 @@
       </c>
     </row>
     <row r="117" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G117" s="2"/>
       <c r="H117" s="4">
-        <v>57</v>
+        <v>339</v>
       </c>
       <c r="I117" s="5">
         <v>0</v>
@@ -6365,26 +6359,26 @@
     </row>
     <row r="118" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H118" s="4">
-        <v>282</v>
+        <v>753</v>
       </c>
       <c r="I118" s="5">
         <v>0</v>
@@ -6409,17 +6403,27 @@
       </c>
     </row>
     <row r="119" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H119" s="4">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="I119" s="5">
         <v>0</v>
@@ -6444,27 +6448,17 @@
       </c>
     </row>
     <row r="120" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G120" s="2"/>
       <c r="H120" s="4">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
@@ -6490,26 +6484,26 @@
     </row>
     <row r="121" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H121" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I121" s="5">
         <v>0</v>
@@ -6544,7 +6538,7 @@
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="4">
-        <v>754</v>
+        <v>1000</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
@@ -6573,10 +6567,10 @@
         <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>23</v>
@@ -6589,7 +6583,7 @@
         <v>55</v>
       </c>
       <c r="H123" s="4">
-        <v>1000</v>
+        <v>2744</v>
       </c>
       <c r="I123" s="5">
         <v>0</v>
@@ -6614,17 +6608,27 @@
       </c>
     </row>
     <row r="124" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="A124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H124" s="4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I124" s="5">
         <v>0</v>
@@ -6649,27 +6653,17 @@
       </c>
     </row>
     <row r="125" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G125" s="2"/>
       <c r="H125" s="4">
-        <v>3564</v>
+        <v>2745</v>
       </c>
       <c r="I125" s="5">
         <v>0</v>
@@ -6695,26 +6689,26 @@
     </row>
     <row r="126" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H126" s="4">
-        <v>1</v>
+        <v>1520</v>
       </c>
       <c r="I126" s="5">
         <v>0</v>
@@ -6749,7 +6743,7 @@
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="4">
-        <v>3565</v>
+        <v>1520</v>
       </c>
       <c r="I127" s="5">
         <v>0</v>
@@ -6775,13 +6769,13 @@
     </row>
     <row r="128" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>23</v>
@@ -6794,7 +6788,7 @@
         <v>55</v>
       </c>
       <c r="H128" s="4">
-        <v>2340</v>
+        <v>280</v>
       </c>
       <c r="I128" s="5">
         <v>0</v>
@@ -6829,7 +6823,7 @@
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="4">
-        <v>2340</v>
+        <v>280</v>
       </c>
       <c r="I129" s="5">
         <v>0</v>
@@ -6855,10 +6849,10 @@
     </row>
     <row r="130" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>152</v>
@@ -6874,7 +6868,7 @@
         <v>55</v>
       </c>
       <c r="H130" s="4">
-        <v>280</v>
+        <v>3078</v>
       </c>
       <c r="I130" s="5">
         <v>0</v>
@@ -6899,17 +6893,27 @@
       </c>
     </row>
     <row r="131" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="A131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H131" s="4">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="I131" s="5">
         <v>0</v>
@@ -6934,27 +6938,17 @@
       </c>
     </row>
     <row r="132" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G132" s="2"/>
       <c r="H132" s="4">
-        <v>8818</v>
+        <v>3079</v>
       </c>
       <c r="I132" s="5">
         <v>0</v>
@@ -6983,23 +6977,23 @@
         <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H133" s="4">
-        <v>1</v>
+        <v>466</v>
       </c>
       <c r="I133" s="5">
         <v>0</v>
@@ -7034,7 +7028,7 @@
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="4">
-        <v>8819</v>
+        <v>466</v>
       </c>
       <c r="I134" s="5">
         <v>0</v>
@@ -7060,13 +7054,13 @@
     </row>
     <row r="135" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>23</v>
@@ -7079,7 +7073,7 @@
         <v>55</v>
       </c>
       <c r="H135" s="4">
-        <v>466</v>
+        <v>14191</v>
       </c>
       <c r="I135" s="5">
         <v>0</v>
@@ -7114,7 +7108,7 @@
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="4">
-        <v>466</v>
+        <v>14191</v>
       </c>
       <c r="I136" s="5">
         <v>0</v>
@@ -7143,7 +7137,7 @@
         <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>157</v>
@@ -7153,13 +7147,13 @@
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H137" s="4">
-        <v>14191</v>
+        <v>2</v>
       </c>
       <c r="I137" s="5">
         <v>0</v>
@@ -7194,7 +7188,7 @@
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="4">
-        <v>14191</v>
+        <v>2</v>
       </c>
       <c r="I138" s="5">
         <v>0</v>
@@ -7223,23 +7217,23 @@
         <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H139" s="4">
-        <v>2</v>
+        <v>1050</v>
       </c>
       <c r="I139" s="5">
         <v>0</v>
@@ -7274,7 +7268,7 @@
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="4">
-        <v>2</v>
+        <v>1050</v>
       </c>
       <c r="I140" s="5">
         <v>0</v>
@@ -7300,13 +7294,13 @@
     </row>
     <row r="141" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>23</v>
@@ -7319,7 +7313,7 @@
         <v>55</v>
       </c>
       <c r="H141" s="4">
-        <v>1050</v>
+        <v>27893</v>
       </c>
       <c r="I141" s="5">
         <v>0</v>
@@ -7344,17 +7338,27 @@
       </c>
     </row>
     <row r="142" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="A142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H142" s="4">
-        <v>1050</v>
+        <v>1</v>
       </c>
       <c r="I142" s="5">
         <v>0</v>
@@ -7379,27 +7383,17 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G143" s="2"/>
       <c r="H143" s="4">
-        <v>27893</v>
+        <v>27894</v>
       </c>
       <c r="I143" s="5">
         <v>0</v>
@@ -7428,23 +7422,23 @@
         <v>161</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H144" s="4">
-        <v>1</v>
+        <v>2789</v>
       </c>
       <c r="I144" s="5">
         <v>0</v>
@@ -7469,17 +7463,27 @@
       </c>
     </row>
     <row r="145" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="A145" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H145" s="4">
-        <v>27894</v>
+        <v>20</v>
       </c>
       <c r="I145" s="5">
         <v>0</v>
@@ -7505,7 +7509,7 @@
     </row>
     <row r="146" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>42</v>
@@ -7518,13 +7522,13 @@
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H146" s="4">
-        <v>3609</v>
+        <v>1</v>
       </c>
       <c r="I146" s="5">
         <v>0</v>
@@ -7549,27 +7553,17 @@
       </c>
     </row>
     <row r="147" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G147" s="2"/>
       <c r="H147" s="4">
-        <v>20</v>
+        <v>2810</v>
       </c>
       <c r="I147" s="5">
         <v>0</v>
@@ -7595,26 +7589,26 @@
     </row>
     <row r="148" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H148" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" s="5">
         <v>0</v>
@@ -7639,17 +7633,27 @@
       </c>
     </row>
     <row r="149" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="A149" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H149" s="4">
-        <v>3630</v>
+        <v>3</v>
       </c>
       <c r="I149" s="5">
         <v>0</v>
@@ -7674,27 +7678,17 @@
       </c>
     </row>
     <row r="150" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G150" s="2"/>
       <c r="H150" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I150" s="5">
         <v>0</v>
@@ -7726,20 +7720,20 @@
         <v>42</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H151" s="4">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I151" s="5">
         <v>0</v>
@@ -7764,17 +7758,27 @@
       </c>
     </row>
     <row r="152" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="A152" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H152" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I152" s="5">
         <v>0</v>
@@ -7799,27 +7803,17 @@
       </c>
     </row>
     <row r="153" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G153" s="2"/>
       <c r="H153" s="4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I153" s="5">
         <v>0</v>
@@ -7845,26 +7839,26 @@
     </row>
     <row r="154" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C154" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H154" s="4">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I154" s="5">
         <v>0</v>
@@ -7899,7 +7893,7 @@
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="4">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I155" s="5">
         <v>0</v>
@@ -7925,10 +7919,10 @@
     </row>
     <row r="156" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>169</v>
@@ -7944,7 +7938,7 @@
         <v>55</v>
       </c>
       <c r="H156" s="4">
-        <v>60</v>
+        <v>3443</v>
       </c>
       <c r="I156" s="5">
         <v>0</v>
@@ -7969,17 +7963,27 @@
       </c>
     </row>
     <row r="157" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="A157" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H157" s="4">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="I157" s="5">
         <v>0</v>
@@ -8004,27 +8008,17 @@
       </c>
     </row>
     <row r="158" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G158" s="2"/>
       <c r="H158" s="4">
-        <v>3443</v>
+        <v>3447</v>
       </c>
       <c r="I158" s="5">
         <v>0</v>
@@ -8053,23 +8047,23 @@
         <v>170</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H159" s="4">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I159" s="5">
         <v>0</v>
@@ -8104,7 +8098,7 @@
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="4">
-        <v>3447</v>
+        <v>52</v>
       </c>
       <c r="I160" s="5">
         <v>0</v>
@@ -8130,13 +8124,13 @@
     </row>
     <row r="161" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>23</v>
@@ -8149,7 +8143,7 @@
         <v>55</v>
       </c>
       <c r="H161" s="4">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I161" s="5">
         <v>0</v>
@@ -8184,7 +8178,7 @@
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="4">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I162" s="5">
         <v>0</v>
@@ -8210,13 +8204,13 @@
     </row>
     <row r="163" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>23</v>
@@ -8229,7 +8223,7 @@
         <v>55</v>
       </c>
       <c r="H163" s="4">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="I163" s="5">
         <v>0</v>
@@ -8254,17 +8248,27 @@
       </c>
     </row>
     <row r="164" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="A164" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H164" s="4">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="I164" s="5">
         <v>0</v>
@@ -8289,27 +8293,17 @@
       </c>
     </row>
     <row r="165" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G165" s="2"/>
       <c r="H165" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I165" s="5">
         <v>0</v>
@@ -8335,10 +8329,10 @@
     </row>
     <row r="166" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>178</v>
@@ -8348,13 +8342,13 @@
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H166" s="4">
-        <v>2</v>
+        <v>2933</v>
       </c>
       <c r="I166" s="5">
         <v>0</v>
@@ -8379,17 +8373,27 @@
       </c>
     </row>
     <row r="167" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="A167" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G167" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H167" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I167" s="5">
         <v>0</v>
@@ -8415,26 +8419,26 @@
     </row>
     <row r="168" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H168" s="4">
-        <v>2933</v>
+        <v>1</v>
       </c>
       <c r="I168" s="5">
         <v>0</v>
@@ -8459,27 +8463,17 @@
       </c>
     </row>
     <row r="169" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G169" s="2"/>
       <c r="H169" s="4">
-        <v>2</v>
+        <v>2936</v>
       </c>
       <c r="I169" s="5">
         <v>0</v>
@@ -8508,7 +8502,7 @@
         <v>179</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>180</v>
@@ -8518,13 +8512,13 @@
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H170" s="4">
-        <v>1</v>
+        <v>2628</v>
       </c>
       <c r="I170" s="5">
         <v>0</v>
@@ -8549,17 +8543,27 @@
       </c>
     </row>
     <row r="171" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="A171" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G171" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H171" s="4">
-        <v>2936</v>
+        <v>1</v>
       </c>
       <c r="I171" s="5">
         <v>0</v>
@@ -8585,26 +8589,26 @@
     </row>
     <row r="172" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H172" s="4">
-        <v>2628</v>
+        <v>6</v>
       </c>
       <c r="I172" s="5">
         <v>0</v>
@@ -8629,27 +8633,17 @@
       </c>
     </row>
     <row r="173" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G173" s="2"/>
       <c r="H173" s="4">
-        <v>1</v>
+        <v>2635</v>
       </c>
       <c r="I173" s="5">
         <v>0</v>
@@ -8678,7 +8672,7 @@
         <v>181</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>182</v>
@@ -8688,13 +8682,13 @@
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H174" s="4">
-        <v>6</v>
+        <v>2489</v>
       </c>
       <c r="I174" s="5">
         <v>0</v>
@@ -8719,17 +8713,27 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G175" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H175" s="4">
-        <v>2635</v>
+        <v>2</v>
       </c>
       <c r="I175" s="5">
         <v>0</v>
@@ -8755,26 +8759,26 @@
     </row>
     <row r="176" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H176" s="4">
-        <v>2489</v>
+        <v>20</v>
       </c>
       <c r="I176" s="5">
         <v>0</v>
@@ -8799,27 +8803,17 @@
       </c>
     </row>
     <row r="177" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G177" s="2"/>
       <c r="H177" s="4">
-        <v>2</v>
+        <v>2511</v>
       </c>
       <c r="I177" s="5">
         <v>0</v>
@@ -8848,23 +8842,23 @@
         <v>183</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H178" s="4">
-        <v>20</v>
+        <v>523</v>
       </c>
       <c r="I178" s="5">
         <v>0</v>
@@ -8899,7 +8893,7 @@
       </c>
       <c r="G179" s="2"/>
       <c r="H179" s="4">
-        <v>2511</v>
+        <v>523</v>
       </c>
       <c r="I179" s="5">
         <v>0</v>
@@ -8925,13 +8919,13 @@
     </row>
     <row r="180" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>23</v>
@@ -8944,7 +8938,7 @@
         <v>55</v>
       </c>
       <c r="H180" s="4">
-        <v>1343</v>
+        <v>10246</v>
       </c>
       <c r="I180" s="5">
         <v>0</v>
@@ -8979,7 +8973,7 @@
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="4">
-        <v>1343</v>
+        <v>10246</v>
       </c>
       <c r="I181" s="5">
         <v>0</v>
@@ -9005,10 +8999,10 @@
     </row>
     <row r="182" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>190</v>
@@ -9024,7 +9018,7 @@
         <v>55</v>
       </c>
       <c r="H182" s="4">
-        <v>11066</v>
+        <v>10213</v>
       </c>
       <c r="I182" s="5">
         <v>0</v>
@@ -9059,7 +9053,7 @@
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="4">
-        <v>11066</v>
+        <v>10213</v>
       </c>
       <c r="I183" s="5">
         <v>0</v>
@@ -9088,10 +9082,10 @@
         <v>191</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>23</v>
@@ -9104,7 +9098,7 @@
         <v>55</v>
       </c>
       <c r="H184" s="4">
-        <v>11033</v>
+        <v>2827</v>
       </c>
       <c r="I184" s="5">
         <v>0</v>
@@ -9139,7 +9133,7 @@
       </c>
       <c r="G185" s="2"/>
       <c r="H185" s="4">
-        <v>11033</v>
+        <v>2827</v>
       </c>
       <c r="I185" s="5">
         <v>0</v>
@@ -9165,13 +9159,13 @@
     </row>
     <row r="186" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>23</v>
@@ -9184,7 +9178,7 @@
         <v>55</v>
       </c>
       <c r="H186" s="4">
-        <v>2827</v>
+        <v>28324</v>
       </c>
       <c r="I186" s="5">
         <v>0</v>
@@ -9219,7 +9213,7 @@
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="4">
-        <v>2827</v>
+        <v>28324</v>
       </c>
       <c r="I187" s="5">
         <v>0</v>
@@ -9245,13 +9239,13 @@
     </row>
     <row r="188" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>23</v>
@@ -9264,7 +9258,7 @@
         <v>55</v>
       </c>
       <c r="H188" s="4">
-        <v>28324</v>
+        <v>12441</v>
       </c>
       <c r="I188" s="5">
         <v>0</v>
@@ -9299,7 +9293,7 @@
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="4">
-        <v>28324</v>
+        <v>12441</v>
       </c>
       <c r="I189" s="5">
         <v>0</v>
@@ -9325,16 +9319,16 @@
     </row>
     <row r="190" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2" t="s">
@@ -9344,7 +9338,7 @@
         <v>55</v>
       </c>
       <c r="H190" s="4">
-        <v>12441</v>
+        <v>495</v>
       </c>
       <c r="I190" s="5">
         <v>0</v>
@@ -9379,7 +9373,7 @@
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="4">
-        <v>12441</v>
+        <v>495</v>
       </c>
       <c r="I191" s="5">
         <v>0</v>
@@ -9405,16 +9399,16 @@
     </row>
     <row r="192" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2" t="s">
@@ -9424,7 +9418,7 @@
         <v>55</v>
       </c>
       <c r="H192" s="4">
-        <v>693</v>
+        <v>2734</v>
       </c>
       <c r="I192" s="5">
         <v>0</v>
@@ -9459,7 +9453,7 @@
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="4">
-        <v>693</v>
+        <v>2734</v>
       </c>
       <c r="I193" s="5">
         <v>0</v>
@@ -9485,13 +9479,13 @@
     </row>
     <row r="194" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>23</v>
@@ -9504,7 +9498,7 @@
         <v>55</v>
       </c>
       <c r="H194" s="4">
-        <v>3554</v>
+        <v>40</v>
       </c>
       <c r="I194" s="5">
         <v>0</v>
@@ -9539,7 +9533,7 @@
       </c>
       <c r="G195" s="2"/>
       <c r="H195" s="4">
-        <v>3554</v>
+        <v>40</v>
       </c>
       <c r="I195" s="5">
         <v>0</v>
@@ -9565,13 +9559,13 @@
     </row>
     <row r="196" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>23</v>
@@ -9584,7 +9578,7 @@
         <v>55</v>
       </c>
       <c r="H196" s="4">
-        <v>40</v>
+        <v>8760</v>
       </c>
       <c r="I196" s="5">
         <v>0</v>
@@ -9619,7 +9613,7 @@
       </c>
       <c r="G197" s="2"/>
       <c r="H197" s="4">
-        <v>40</v>
+        <v>8760</v>
       </c>
       <c r="I197" s="5">
         <v>0</v>
@@ -9645,13 +9639,13 @@
     </row>
     <row r="198" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>23</v>
@@ -9664,7 +9658,7 @@
         <v>55</v>
       </c>
       <c r="H198" s="4">
-        <v>8760</v>
+        <v>8430</v>
       </c>
       <c r="I198" s="5">
         <v>0</v>
@@ -9699,7 +9693,7 @@
       </c>
       <c r="G199" s="2"/>
       <c r="H199" s="4">
-        <v>8760</v>
+        <v>8430</v>
       </c>
       <c r="I199" s="5">
         <v>0</v>
@@ -9725,13 +9719,13 @@
     </row>
     <row r="200" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>23</v>
@@ -9744,7 +9738,7 @@
         <v>55</v>
       </c>
       <c r="H200" s="4">
-        <v>8430</v>
+        <v>7045</v>
       </c>
       <c r="I200" s="5">
         <v>0</v>
@@ -9779,7 +9773,7 @@
       </c>
       <c r="G201" s="2"/>
       <c r="H201" s="4">
-        <v>8430</v>
+        <v>7045</v>
       </c>
       <c r="I201" s="5">
         <v>0</v>
@@ -9805,10 +9799,10 @@
     </row>
     <row r="202" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>220</v>
@@ -9824,7 +9818,7 @@
         <v>55</v>
       </c>
       <c r="H202" s="4">
-        <v>7865</v>
+        <v>5656</v>
       </c>
       <c r="I202" s="5">
         <v>0</v>
@@ -9859,7 +9853,7 @@
       </c>
       <c r="G203" s="2"/>
       <c r="H203" s="4">
-        <v>7865</v>
+        <v>5656</v>
       </c>
       <c r="I203" s="5">
         <v>0</v>
@@ -9888,7 +9882,7 @@
         <v>221</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>222</v>
@@ -9904,7 +9898,7 @@
         <v>55</v>
       </c>
       <c r="H204" s="4">
-        <v>6476</v>
+        <v>5673</v>
       </c>
       <c r="I204" s="5">
         <v>0</v>
@@ -9939,7 +9933,7 @@
       </c>
       <c r="G205" s="2"/>
       <c r="H205" s="4">
-        <v>6476</v>
+        <v>5673</v>
       </c>
       <c r="I205" s="5">
         <v>0</v>
@@ -9968,10 +9962,10 @@
         <v>223</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>23</v>
@@ -9984,7 +9978,7 @@
         <v>55</v>
       </c>
       <c r="H206" s="4">
-        <v>6493</v>
+        <v>14485</v>
       </c>
       <c r="I206" s="5">
         <v>0</v>
@@ -10019,7 +10013,7 @@
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="4">
-        <v>6493</v>
+        <v>14485</v>
       </c>
       <c r="I207" s="5">
         <v>0</v>
@@ -10045,10 +10039,10 @@
     </row>
     <row r="208" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>227</v>
@@ -10064,7 +10058,7 @@
         <v>55</v>
       </c>
       <c r="H208" s="4">
-        <v>16125</v>
+        <v>309</v>
       </c>
       <c r="I208" s="5">
         <v>0</v>
@@ -10099,7 +10093,7 @@
       </c>
       <c r="G209" s="2"/>
       <c r="H209" s="4">
-        <v>16125</v>
+        <v>309</v>
       </c>
       <c r="I209" s="5">
         <v>0</v>
@@ -10131,7 +10125,7 @@
         <v>118</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>23</v>
@@ -10144,7 +10138,7 @@
         <v>55</v>
       </c>
       <c r="H210" s="4">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I210" s="5">
         <v>0</v>
@@ -10179,7 +10173,7 @@
       </c>
       <c r="G211" s="2"/>
       <c r="H211" s="4">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I211" s="5">
         <v>0</v>
@@ -10205,13 +10199,13 @@
     </row>
     <row r="212" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>23</v>
@@ -10224,7 +10218,7 @@
         <v>55</v>
       </c>
       <c r="H212" s="4">
-        <v>320</v>
+        <v>733</v>
       </c>
       <c r="I212" s="5">
         <v>0</v>
@@ -10259,7 +10253,7 @@
       </c>
       <c r="G213" s="2"/>
       <c r="H213" s="4">
-        <v>320</v>
+        <v>733</v>
       </c>
       <c r="I213" s="5">
         <v>0</v>
@@ -10288,10 +10282,10 @@
         <v>231</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>23</v>
@@ -10304,7 +10298,7 @@
         <v>55</v>
       </c>
       <c r="H214" s="4">
-        <v>733</v>
+        <v>160</v>
       </c>
       <c r="I214" s="5">
         <v>0</v>
@@ -10339,7 +10333,7 @@
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="4">
-        <v>733</v>
+        <v>160</v>
       </c>
       <c r="I215" s="5">
         <v>0</v>
@@ -10365,13 +10359,13 @@
     </row>
     <row r="216" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C216" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>23</v>
@@ -10384,7 +10378,7 @@
         <v>55</v>
       </c>
       <c r="H216" s="4">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="I216" s="5">
         <v>0</v>
@@ -10419,7 +10413,7 @@
       </c>
       <c r="G217" s="2"/>
       <c r="H217" s="4">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="I217" s="5">
         <v>0</v>
@@ -10445,13 +10439,13 @@
     </row>
     <row r="218" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>23</v>
@@ -10464,7 +10458,7 @@
         <v>55</v>
       </c>
       <c r="H218" s="4">
-        <v>212</v>
+        <v>694</v>
       </c>
       <c r="I218" s="5">
         <v>0</v>
@@ -10499,7 +10493,7 @@
       </c>
       <c r="G219" s="2"/>
       <c r="H219" s="4">
-        <v>212</v>
+        <v>694</v>
       </c>
       <c r="I219" s="5">
         <v>0</v>
@@ -10525,13 +10519,13 @@
     </row>
     <row r="220" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>23</v>
@@ -10544,7 +10538,7 @@
         <v>55</v>
       </c>
       <c r="H220" s="4">
-        <v>1514</v>
+        <v>705</v>
       </c>
       <c r="I220" s="5">
         <v>0</v>
@@ -10579,7 +10573,7 @@
       </c>
       <c r="G221" s="2"/>
       <c r="H221" s="4">
-        <v>1514</v>
+        <v>705</v>
       </c>
       <c r="I221" s="5">
         <v>0</v>
@@ -10611,7 +10605,7 @@
         <v>241</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>23</v>
@@ -10624,7 +10618,7 @@
         <v>55</v>
       </c>
       <c r="H222" s="4">
-        <v>1525</v>
+        <v>263</v>
       </c>
       <c r="I222" s="5">
         <v>0</v>
@@ -10659,7 +10653,7 @@
       </c>
       <c r="G223" s="2"/>
       <c r="H223" s="4">
-        <v>1525</v>
+        <v>263</v>
       </c>
       <c r="I223" s="5">
         <v>0</v>
@@ -10685,13 +10679,13 @@
     </row>
     <row r="224" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>23</v>
@@ -10704,7 +10698,7 @@
         <v>55</v>
       </c>
       <c r="H224" s="4">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I224" s="5">
         <v>0</v>
@@ -10739,7 +10733,7 @@
       </c>
       <c r="G225" s="2"/>
       <c r="H225" s="4">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I225" s="5">
         <v>0</v>
@@ -10771,7 +10765,7 @@
         <v>246</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>23</v>
@@ -10784,7 +10778,7 @@
         <v>55</v>
       </c>
       <c r="H226" s="4">
-        <v>252</v>
+        <v>16562</v>
       </c>
       <c r="I226" s="5">
         <v>0</v>
@@ -10819,7 +10813,7 @@
       </c>
       <c r="G227" s="2"/>
       <c r="H227" s="4">
-        <v>252</v>
+        <v>16562</v>
       </c>
       <c r="I227" s="5">
         <v>0</v>
@@ -10845,13 +10839,13 @@
     </row>
     <row r="228" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>23</v>
@@ -10864,7 +10858,7 @@
         <v>55</v>
       </c>
       <c r="H228" s="4">
-        <v>16562</v>
+        <v>1</v>
       </c>
       <c r="I228" s="5">
         <v>0</v>
@@ -10899,7 +10893,7 @@
       </c>
       <c r="G229" s="2"/>
       <c r="H229" s="4">
-        <v>16562</v>
+        <v>1</v>
       </c>
       <c r="I229" s="5">
         <v>0</v>
@@ -10925,13 +10919,13 @@
     </row>
     <row r="230" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>23</v>
@@ -10944,7 +10938,7 @@
         <v>55</v>
       </c>
       <c r="H230" s="4">
-        <v>1</v>
+        <v>4603</v>
       </c>
       <c r="I230" s="5">
         <v>0</v>
@@ -10979,7 +10973,7 @@
       </c>
       <c r="G231" s="2"/>
       <c r="H231" s="4">
-        <v>1</v>
+        <v>4603</v>
       </c>
       <c r="I231" s="5">
         <v>0</v>
@@ -11005,13 +10999,13 @@
     </row>
     <row r="232" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>23</v>
@@ -11024,7 +11018,7 @@
         <v>55</v>
       </c>
       <c r="H232" s="4">
-        <v>6243</v>
+        <v>5123</v>
       </c>
       <c r="I232" s="5">
         <v>0</v>
@@ -11059,7 +11053,7 @@
       </c>
       <c r="G233" s="2"/>
       <c r="H233" s="4">
-        <v>6243</v>
+        <v>5123</v>
       </c>
       <c r="I233" s="5">
         <v>0</v>
@@ -11088,7 +11082,7 @@
         <v>254</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>255</v>
@@ -11104,7 +11098,7 @@
         <v>55</v>
       </c>
       <c r="H234" s="4">
-        <v>5123</v>
+        <v>11864</v>
       </c>
       <c r="I234" s="5">
         <v>0</v>
@@ -11139,7 +11133,7 @@
       </c>
       <c r="G235" s="2"/>
       <c r="H235" s="4">
-        <v>5123</v>
+        <v>11864</v>
       </c>
       <c r="I235" s="5">
         <v>0</v>
@@ -11168,10 +11162,10 @@
         <v>256</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>23</v>
@@ -11184,7 +11178,7 @@
         <v>55</v>
       </c>
       <c r="H236" s="4">
-        <v>11864</v>
+        <v>452</v>
       </c>
       <c r="I236" s="5">
         <v>0</v>
@@ -11219,7 +11213,7 @@
       </c>
       <c r="G237" s="2"/>
       <c r="H237" s="4">
-        <v>11864</v>
+        <v>452</v>
       </c>
       <c r="I237" s="5">
         <v>0</v>
@@ -11245,13 +11239,13 @@
     </row>
     <row r="238" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>23</v>
@@ -11264,7 +11258,7 @@
         <v>55</v>
       </c>
       <c r="H238" s="4">
-        <v>452</v>
+        <v>248</v>
       </c>
       <c r="I238" s="5">
         <v>0</v>
@@ -11299,7 +11293,7 @@
       </c>
       <c r="G239" s="2"/>
       <c r="H239" s="4">
-        <v>452</v>
+        <v>248</v>
       </c>
       <c r="I239" s="5">
         <v>0</v>
@@ -11325,10 +11319,10 @@
     </row>
     <row r="240" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>263</v>
@@ -11344,7 +11338,7 @@
         <v>55</v>
       </c>
       <c r="H240" s="4">
-        <v>248</v>
+        <v>3510</v>
       </c>
       <c r="I240" s="5">
         <v>0</v>
@@ -11379,7 +11373,7 @@
       </c>
       <c r="G241" s="2"/>
       <c r="H241" s="4">
-        <v>248</v>
+        <v>3510</v>
       </c>
       <c r="I241" s="5">
         <v>0</v>
@@ -11408,10 +11402,10 @@
         <v>264</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>23</v>
@@ -11424,7 +11418,7 @@
         <v>55</v>
       </c>
       <c r="H242" s="4">
-        <v>3510</v>
+        <v>1187</v>
       </c>
       <c r="I242" s="5">
         <v>0</v>
@@ -11459,7 +11453,7 @@
       </c>
       <c r="G243" s="2"/>
       <c r="H243" s="4">
-        <v>3510</v>
+        <v>1187</v>
       </c>
       <c r="I243" s="5">
         <v>0</v>
@@ -11485,10 +11479,10 @@
     </row>
     <row r="244" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>268</v>
@@ -11504,7 +11498,7 @@
         <v>55</v>
       </c>
       <c r="H244" s="4">
-        <v>1187</v>
+        <v>505</v>
       </c>
       <c r="I244" s="5">
         <v>0</v>
@@ -11539,7 +11533,7 @@
       </c>
       <c r="G245" s="2"/>
       <c r="H245" s="4">
-        <v>1187</v>
+        <v>505</v>
       </c>
       <c r="I245" s="5">
         <v>0</v>
@@ -11568,7 +11562,7 @@
         <v>269</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>270</v>
@@ -11584,7 +11578,7 @@
         <v>55</v>
       </c>
       <c r="H246" s="4">
-        <v>505</v>
+        <v>225</v>
       </c>
       <c r="I246" s="5">
         <v>0</v>
@@ -11619,7 +11613,7 @@
       </c>
       <c r="G247" s="2"/>
       <c r="H247" s="4">
-        <v>505</v>
+        <v>225</v>
       </c>
       <c r="I247" s="5">
         <v>0</v>
@@ -11648,13 +11642,13 @@
         <v>271</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2" t="s">
@@ -11664,7 +11658,7 @@
         <v>55</v>
       </c>
       <c r="H248" s="4">
-        <v>225</v>
+        <v>4500</v>
       </c>
       <c r="I248" s="5">
         <v>0</v>
@@ -11699,7 +11693,7 @@
       </c>
       <c r="G249" s="2"/>
       <c r="H249" s="4">
-        <v>225</v>
+        <v>4500</v>
       </c>
       <c r="I249" s="5">
         <v>0</v>
@@ -11725,16 +11719,16 @@
     </row>
     <row r="250" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2" t="s">
@@ -11744,7 +11738,7 @@
         <v>55</v>
       </c>
       <c r="H250" s="4">
-        <v>4805</v>
+        <v>16000</v>
       </c>
       <c r="I250" s="5">
         <v>0</v>
@@ -11779,7 +11773,7 @@
       </c>
       <c r="G251" s="2"/>
       <c r="H251" s="4">
-        <v>4805</v>
+        <v>16000</v>
       </c>
       <c r="I251" s="5">
         <v>0</v>
@@ -11805,10 +11799,10 @@
     </row>
     <row r="252" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>278</v>
@@ -11824,7 +11818,7 @@
         <v>55</v>
       </c>
       <c r="H252" s="4">
-        <v>17000</v>
+        <v>10413</v>
       </c>
       <c r="I252" s="5">
         <v>0</v>
@@ -11859,7 +11853,7 @@
       </c>
       <c r="G253" s="2"/>
       <c r="H253" s="4">
-        <v>17000</v>
+        <v>10413</v>
       </c>
       <c r="I253" s="5">
         <v>0</v>
@@ -11888,35 +11882,29 @@
         <v>279</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G254" s="2"/>
       <c r="H254" s="4">
-        <v>10413</v>
+        <v>302637</v>
       </c>
       <c r="I254" s="5">
-        <v>0</v>
-      </c>
-      <c r="J254" s="6">
-        <v>0</v>
-      </c>
+        <v>4028</v>
+      </c>
+      <c r="J254" s="2"/>
       <c r="K254" s="4">
         <v>0</v>
       </c>
       <c r="L254" s="4">
-        <v>0</v>
+        <v>4028</v>
       </c>
       <c r="M254" s="4">
         <v>0</v>
@@ -11929,158 +11917,164 @@
       </c>
     </row>
     <row r="255" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G255" s="2"/>
-      <c r="H255" s="4">
-        <v>10413</v>
-      </c>
-      <c r="I255" s="5">
-        <v>0</v>
-      </c>
-      <c r="J255" s="6">
-        <v>0</v>
-      </c>
-      <c r="K255" s="4">
-        <v>0</v>
-      </c>
-      <c r="L255" s="4">
-        <v>0</v>
-      </c>
-      <c r="M255" s="4">
-        <v>0</v>
-      </c>
-      <c r="N255" s="4">
-        <v>0</v>
-      </c>
-      <c r="O255" s="4">
+      <c r="A255" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E255" s="8"/>
+      <c r="F255" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H255" s="9">
+        <v>20</v>
+      </c>
+      <c r="I255" s="10">
+        <v>2880</v>
+      </c>
+      <c r="J255" s="11">
+        <v>144</v>
+      </c>
+      <c r="K255" s="9">
+        <v>0</v>
+      </c>
+      <c r="L255" s="9">
+        <v>2880</v>
+      </c>
+      <c r="M255" s="9">
+        <v>0</v>
+      </c>
+      <c r="N255" s="9">
+        <v>0</v>
+      </c>
+      <c r="O255" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D256" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H256" s="4">
+        <v>2</v>
+      </c>
+      <c r="I256" s="5">
+        <v>0</v>
+      </c>
+      <c r="J256" s="6">
+        <v>0</v>
+      </c>
+      <c r="K256" s="4">
+        <v>0</v>
+      </c>
+      <c r="L256" s="4">
+        <v>0</v>
+      </c>
+      <c r="M256" s="4">
+        <v>0</v>
+      </c>
+      <c r="N256" s="4">
+        <v>0</v>
+      </c>
+      <c r="O256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G256" s="2"/>
-      <c r="H256" s="4">
-        <v>336640</v>
-      </c>
-      <c r="I256" s="5">
-        <v>4028</v>
-      </c>
-      <c r="J256" s="2"/>
-      <c r="K256" s="4">
-        <v>0</v>
-      </c>
-      <c r="L256" s="4">
-        <v>4028</v>
-      </c>
-      <c r="M256" s="4">
-        <v>0</v>
-      </c>
-      <c r="N256" s="4">
-        <v>0</v>
-      </c>
-      <c r="O256" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="8" t="s">
+      <c r="C257" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B257" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D257" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E257" s="8"/>
-      <c r="F257" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G257" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H257" s="9">
-        <v>20</v>
-      </c>
-      <c r="I257" s="10">
-        <v>2880</v>
-      </c>
-      <c r="J257" s="11">
+      <c r="D257" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H257" s="4">
+        <v>2</v>
+      </c>
+      <c r="I257" s="5">
+        <v>288</v>
+      </c>
+      <c r="J257" s="6">
         <v>144</v>
       </c>
-      <c r="K257" s="9">
-        <v>0</v>
-      </c>
-      <c r="L257" s="9">
-        <v>2880</v>
-      </c>
-      <c r="M257" s="9">
-        <v>0</v>
-      </c>
-      <c r="N257" s="9">
-        <v>0</v>
-      </c>
-      <c r="O257" s="9">
+      <c r="K257" s="4">
+        <v>0</v>
+      </c>
+      <c r="L257" s="4">
+        <v>288</v>
+      </c>
+      <c r="M257" s="4">
+        <v>0</v>
+      </c>
+      <c r="N257" s="4">
+        <v>0</v>
+      </c>
+      <c r="O257" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G258" s="2"/>
       <c r="H258" s="4">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I258" s="5">
-        <v>0</v>
+        <v>3168</v>
       </c>
       <c r="J258" s="6">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="K258" s="4">
         <v>0</v>
       </c>
       <c r="L258" s="4">
-        <v>0</v>
+        <v>3168</v>
       </c>
       <c r="M258" s="4">
         <v>0</v>
@@ -12094,73 +12088,83 @@
     </row>
     <row r="259" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H259" s="4">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="I259" s="5">
+        <v>9916</v>
+      </c>
+      <c r="J259" s="6">
+        <v>148</v>
+      </c>
+      <c r="K259" s="4">
+        <v>0</v>
+      </c>
+      <c r="L259" s="4">
+        <v>9916</v>
+      </c>
+      <c r="M259" s="4">
+        <v>0</v>
+      </c>
+      <c r="N259" s="4">
+        <v>0</v>
+      </c>
+      <c r="O259" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J259" s="6">
-        <v>144</v>
-      </c>
-      <c r="K259" s="4">
-        <v>0</v>
-      </c>
-      <c r="L259" s="4">
-        <v>288</v>
-      </c>
-      <c r="M259" s="4">
-        <v>0</v>
-      </c>
-      <c r="N259" s="4">
-        <v>0</v>
-      </c>
-      <c r="O259" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
+      <c r="D260" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G260" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H260" s="4">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I260" s="5">
-        <v>3168</v>
+        <v>0</v>
       </c>
       <c r="J260" s="6">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K260" s="4">
         <v>0</v>
       </c>
       <c r="L260" s="4">
-        <v>3168</v>
+        <v>0</v>
       </c>
       <c r="M260" s="4">
         <v>0</v>
@@ -12174,29 +12178,29 @@
     </row>
     <row r="261" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H261" s="4">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="I261" s="5">
-        <v>9916</v>
+        <v>888</v>
       </c>
       <c r="J261" s="6">
         <v>148</v>
@@ -12205,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="L261" s="4">
-        <v>9916</v>
+        <v>888</v>
       </c>
       <c r="M261" s="4">
         <v>0</v>
@@ -12218,39 +12222,29 @@
       </c>
     </row>
     <row r="262" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G262" s="2"/>
       <c r="H262" s="4">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="I262" s="5">
-        <v>0</v>
+        <v>10804</v>
       </c>
       <c r="J262" s="6">
-        <v>0</v>
+        <v>138.512821</v>
       </c>
       <c r="K262" s="4">
         <v>0</v>
       </c>
       <c r="L262" s="4">
-        <v>0</v>
+        <v>10804</v>
       </c>
       <c r="M262" s="4">
         <v>0</v>
@@ -12264,38 +12258,38 @@
     </row>
     <row r="263" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H263" s="4">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="I263" s="5">
-        <v>888</v>
+        <v>29520</v>
       </c>
       <c r="J263" s="6">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="K263" s="4">
         <v>0</v>
       </c>
       <c r="L263" s="4">
-        <v>888</v>
+        <v>29520</v>
       </c>
       <c r="M263" s="4">
         <v>0</v>
@@ -12318,19 +12312,19 @@
       </c>
       <c r="G264" s="2"/>
       <c r="H264" s="4">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="I264" s="5">
-        <v>10804</v>
+        <v>29520</v>
       </c>
       <c r="J264" s="6">
-        <v>138.512821</v>
+        <v>82</v>
       </c>
       <c r="K264" s="4">
         <v>0</v>
       </c>
       <c r="L264" s="4">
-        <v>10804</v>
+        <v>29520</v>
       </c>
       <c r="M264" s="4">
         <v>0</v>
@@ -12344,10 +12338,10 @@
     </row>
     <row r="265" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>293</v>
@@ -12363,19 +12357,19 @@
         <v>31</v>
       </c>
       <c r="H265" s="4">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="I265" s="5">
-        <v>29520</v>
+        <v>1560</v>
       </c>
       <c r="J265" s="6">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="K265" s="4">
         <v>0</v>
       </c>
       <c r="L265" s="4">
-        <v>29520</v>
+        <v>1560</v>
       </c>
       <c r="M265" s="4">
         <v>0</v>
@@ -12398,19 +12392,19 @@
       </c>
       <c r="G266" s="2"/>
       <c r="H266" s="4">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="I266" s="5">
-        <v>29520</v>
+        <v>1560</v>
       </c>
       <c r="J266" s="6">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="K266" s="4">
         <v>0</v>
       </c>
       <c r="L266" s="4">
-        <v>29520</v>
+        <v>1560</v>
       </c>
       <c r="M266" s="4">
         <v>0</v>
@@ -12427,10 +12421,10 @@
         <v>294</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>23</v>
@@ -12443,19 +12437,19 @@
         <v>31</v>
       </c>
       <c r="H267" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I267" s="5">
-        <v>1560</v>
+        <v>1450</v>
       </c>
       <c r="J267" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K267" s="4">
         <v>0</v>
       </c>
       <c r="L267" s="4">
-        <v>1560</v>
+        <v>1450</v>
       </c>
       <c r="M267" s="4">
         <v>0</v>
@@ -12478,19 +12472,19 @@
       </c>
       <c r="G268" s="2"/>
       <c r="H268" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I268" s="5">
-        <v>1560</v>
+        <v>1450</v>
       </c>
       <c r="J268" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K268" s="4">
         <v>0</v>
       </c>
       <c r="L268" s="4">
-        <v>1560</v>
+        <v>1450</v>
       </c>
       <c r="M268" s="4">
         <v>0</v>
@@ -12504,13 +12498,13 @@
     </row>
     <row r="269" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C269" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>23</v>
@@ -12523,19 +12517,19 @@
         <v>31</v>
       </c>
       <c r="H269" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I269" s="5">
-        <v>1450</v>
+        <v>146</v>
       </c>
       <c r="J269" s="6">
-        <v>29</v>
+        <v>3.2444440000000001</v>
       </c>
       <c r="K269" s="4">
         <v>0</v>
       </c>
       <c r="L269" s="4">
-        <v>1450</v>
+        <v>146</v>
       </c>
       <c r="M269" s="4">
         <v>0</v>
@@ -12558,19 +12552,19 @@
       </c>
       <c r="G270" s="2"/>
       <c r="H270" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I270" s="5">
-        <v>1450</v>
+        <v>146</v>
       </c>
       <c r="J270" s="6">
-        <v>29</v>
+        <v>3.2444440000000001</v>
       </c>
       <c r="K270" s="4">
         <v>0</v>
       </c>
       <c r="L270" s="4">
-        <v>1450</v>
+        <v>146</v>
       </c>
       <c r="M270" s="4">
         <v>0</v>
@@ -12603,19 +12597,19 @@
         <v>31</v>
       </c>
       <c r="H271" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I271" s="5">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J271" s="6">
-        <v>3.2444440000000001</v>
+        <v>3.2340429999999998</v>
       </c>
       <c r="K271" s="4">
         <v>0</v>
       </c>
       <c r="L271" s="4">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M271" s="4">
         <v>0</v>
@@ -12638,19 +12632,19 @@
       </c>
       <c r="G272" s="2"/>
       <c r="H272" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I272" s="5">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J272" s="6">
-        <v>3.2444440000000001</v>
+        <v>3.2340429999999998</v>
       </c>
       <c r="K272" s="4">
         <v>0</v>
       </c>
       <c r="L272" s="4">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M272" s="4">
         <v>0</v>
@@ -12670,7 +12664,7 @@
         <v>300</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>23</v>
@@ -12683,19 +12677,19 @@
         <v>31</v>
       </c>
       <c r="H273" s="4">
-        <v>47</v>
+        <v>3911</v>
       </c>
       <c r="I273" s="5">
-        <v>152</v>
+        <v>7822</v>
       </c>
       <c r="J273" s="6">
-        <v>3.2340429999999998</v>
+        <v>2</v>
       </c>
       <c r="K273" s="4">
         <v>0</v>
       </c>
       <c r="L273" s="4">
-        <v>152</v>
+        <v>7822</v>
       </c>
       <c r="M273" s="4">
         <v>0</v>
@@ -12708,29 +12702,39 @@
       </c>
     </row>
     <row r="274" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
+      <c r="A274" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G274" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H274" s="4">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I274" s="5">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="J274" s="6">
-        <v>3.2340429999999998</v>
+        <v>0</v>
       </c>
       <c r="K274" s="4">
         <v>0</v>
       </c>
       <c r="L274" s="4">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="M274" s="4">
         <v>0</v>
@@ -12743,33 +12747,23 @@
       </c>
     </row>
     <row r="275" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G275" s="2"/>
       <c r="H275" s="4">
-        <v>3911</v>
+        <v>3919</v>
       </c>
       <c r="I275" s="5">
         <v>7822</v>
       </c>
       <c r="J275" s="6">
-        <v>2</v>
+        <v>1.9959169999999999</v>
       </c>
       <c r="K275" s="4">
         <v>0</v>
@@ -12789,38 +12783,38 @@
     </row>
     <row r="276" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H276" s="4">
-        <v>8</v>
+        <v>2694</v>
       </c>
       <c r="I276" s="5">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="J276" s="6">
-        <v>0</v>
+        <v>0.18003</v>
       </c>
       <c r="K276" s="4">
         <v>0</v>
       </c>
       <c r="L276" s="4">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="M276" s="4">
         <v>0</v>
@@ -12843,19 +12837,19 @@
       </c>
       <c r="G277" s="2"/>
       <c r="H277" s="4">
-        <v>3919</v>
+        <v>2694</v>
       </c>
       <c r="I277" s="5">
-        <v>7822</v>
+        <v>485</v>
       </c>
       <c r="J277" s="6">
-        <v>1.9959169999999999</v>
+        <v>0.18003</v>
       </c>
       <c r="K277" s="4">
         <v>0</v>
       </c>
       <c r="L277" s="4">
-        <v>7822</v>
+        <v>485</v>
       </c>
       <c r="M277" s="4">
         <v>0</v>
@@ -12869,13 +12863,13 @@
     </row>
     <row r="278" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>23</v>
@@ -12888,19 +12882,19 @@
         <v>31</v>
       </c>
       <c r="H278" s="4">
-        <v>2694</v>
+        <v>1364</v>
       </c>
       <c r="I278" s="5">
-        <v>485</v>
+        <v>9753</v>
       </c>
       <c r="J278" s="6">
-        <v>0.18003</v>
+        <v>7.1502929999999996</v>
       </c>
       <c r="K278" s="4">
         <v>0</v>
       </c>
       <c r="L278" s="4">
-        <v>485</v>
+        <v>9753</v>
       </c>
       <c r="M278" s="4">
         <v>0</v>
@@ -12923,19 +12917,19 @@
       </c>
       <c r="G279" s="2"/>
       <c r="H279" s="4">
-        <v>2694</v>
+        <v>1364</v>
       </c>
       <c r="I279" s="5">
-        <v>485</v>
+        <v>9753</v>
       </c>
       <c r="J279" s="6">
-        <v>0.18003</v>
+        <v>7.1502929999999996</v>
       </c>
       <c r="K279" s="4">
         <v>0</v>
       </c>
       <c r="L279" s="4">
-        <v>485</v>
+        <v>9753</v>
       </c>
       <c r="M279" s="4">
         <v>0</v>
@@ -12949,16 +12943,16 @@
     </row>
     <row r="280" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2" t="s">
@@ -12968,19 +12962,19 @@
         <v>31</v>
       </c>
       <c r="H280" s="4">
-        <v>1364</v>
+        <v>360</v>
       </c>
       <c r="I280" s="5">
-        <v>9753</v>
+        <v>1960</v>
       </c>
       <c r="J280" s="6">
-        <v>7.1502929999999996</v>
+        <v>5.4444439999999998</v>
       </c>
       <c r="K280" s="4">
         <v>0</v>
       </c>
       <c r="L280" s="4">
-        <v>9753</v>
+        <v>1960</v>
       </c>
       <c r="M280" s="4">
         <v>0</v>
@@ -13003,19 +12997,19 @@
       </c>
       <c r="G281" s="2"/>
       <c r="H281" s="4">
-        <v>1364</v>
+        <v>360</v>
       </c>
       <c r="I281" s="5">
-        <v>9753</v>
+        <v>1960</v>
       </c>
       <c r="J281" s="6">
-        <v>7.1502929999999996</v>
+        <v>5.4444439999999998</v>
       </c>
       <c r="K281" s="4">
         <v>0</v>
       </c>
       <c r="L281" s="4">
-        <v>9753</v>
+        <v>1960</v>
       </c>
       <c r="M281" s="4">
         <v>0</v>
@@ -13032,13 +13026,13 @@
         <v>310</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>311</v>
+        <v>206</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2" t="s">
@@ -13048,19 +13042,19 @@
         <v>31</v>
       </c>
       <c r="H282" s="4">
-        <v>360</v>
+        <v>104</v>
       </c>
       <c r="I282" s="5">
-        <v>1960</v>
+        <v>137</v>
       </c>
       <c r="J282" s="6">
-        <v>5.4444439999999998</v>
+        <v>1.3173079999999999</v>
       </c>
       <c r="K282" s="4">
         <v>0</v>
       </c>
       <c r="L282" s="4">
-        <v>1960</v>
+        <v>137</v>
       </c>
       <c r="M282" s="4">
         <v>0</v>
@@ -13083,19 +13077,19 @@
       </c>
       <c r="G283" s="2"/>
       <c r="H283" s="4">
-        <v>360</v>
+        <v>104</v>
       </c>
       <c r="I283" s="5">
-        <v>1960</v>
+        <v>137</v>
       </c>
       <c r="J283" s="6">
-        <v>5.4444439999999998</v>
+        <v>1.3173079999999999</v>
       </c>
       <c r="K283" s="4">
         <v>0</v>
       </c>
       <c r="L283" s="4">
-        <v>1960</v>
+        <v>137</v>
       </c>
       <c r="M283" s="4">
         <v>0</v>
@@ -13109,13 +13103,13 @@
     </row>
     <row r="284" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C284" s="2" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>23</v>
@@ -13128,19 +13122,19 @@
         <v>31</v>
       </c>
       <c r="H284" s="4">
-        <v>104</v>
+        <v>430</v>
       </c>
       <c r="I284" s="5">
-        <v>137</v>
+        <v>2767</v>
       </c>
       <c r="J284" s="6">
-        <v>1.3173079999999999</v>
+        <v>6.4348840000000003</v>
       </c>
       <c r="K284" s="4">
         <v>0</v>
       </c>
       <c r="L284" s="4">
-        <v>137</v>
+        <v>2767</v>
       </c>
       <c r="M284" s="4">
         <v>0</v>
@@ -13153,29 +13147,39 @@
       </c>
     </row>
     <row r="285" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
+      <c r="A285" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G285" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H285" s="4">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="I285" s="5">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="J285" s="6">
-        <v>1.3173079999999999</v>
+        <v>0</v>
       </c>
       <c r="K285" s="4">
         <v>0</v>
       </c>
       <c r="L285" s="4">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="M285" s="4">
         <v>0</v>
@@ -13188,33 +13192,23 @@
       </c>
     </row>
     <row r="286" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G286" s="2"/>
       <c r="H286" s="4">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I286" s="5">
         <v>2767</v>
       </c>
       <c r="J286" s="6">
-        <v>6.4348840000000003</v>
+        <v>6.4199539999999997</v>
       </c>
       <c r="K286" s="4">
         <v>0</v>
@@ -13234,38 +13228,38 @@
     </row>
     <row r="287" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H287" s="4">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="I287" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J287" s="6">
-        <v>0</v>
+        <v>0.37878800000000001</v>
       </c>
       <c r="K287" s="4">
         <v>0</v>
       </c>
       <c r="L287" s="4">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M287" s="4">
         <v>0</v>
@@ -13288,19 +13282,19 @@
       </c>
       <c r="G288" s="2"/>
       <c r="H288" s="4">
-        <v>431</v>
+        <v>198</v>
       </c>
       <c r="I288" s="5">
-        <v>2767</v>
+        <v>75</v>
       </c>
       <c r="J288" s="6">
-        <v>6.4199539999999997</v>
+        <v>0.37878800000000001</v>
       </c>
       <c r="K288" s="4">
         <v>0</v>
       </c>
       <c r="L288" s="4">
-        <v>2767</v>
+        <v>75</v>
       </c>
       <c r="M288" s="4">
         <v>0</v>
@@ -13314,10 +13308,10 @@
     </row>
     <row r="289" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>318</v>
@@ -13333,19 +13327,19 @@
         <v>31</v>
       </c>
       <c r="H289" s="4">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I289" s="5">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="J289" s="6">
-        <v>0.37878800000000001</v>
+        <v>0.50480800000000003</v>
       </c>
       <c r="K289" s="4">
         <v>0</v>
       </c>
       <c r="L289" s="4">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="M289" s="4">
         <v>0</v>
@@ -13368,19 +13362,19 @@
       </c>
       <c r="G290" s="2"/>
       <c r="H290" s="4">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I290" s="5">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="J290" s="6">
-        <v>0.37878800000000001</v>
+        <v>0.50480800000000003</v>
       </c>
       <c r="K290" s="4">
         <v>0</v>
       </c>
       <c r="L290" s="4">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="M290" s="4">
         <v>0</v>
@@ -13397,7 +13391,7 @@
         <v>319</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>320</v>
@@ -13407,25 +13401,25 @@
       </c>
       <c r="E291" s="2"/>
       <c r="F291" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H291" s="4">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="I291" s="5">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J291" s="6">
-        <v>0.50480800000000003</v>
+        <v>0</v>
       </c>
       <c r="K291" s="4">
         <v>0</v>
       </c>
       <c r="L291" s="4">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="M291" s="4">
         <v>0</v>
@@ -13448,19 +13442,19 @@
       </c>
       <c r="G292" s="2"/>
       <c r="H292" s="4">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="I292" s="5">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J292" s="6">
-        <v>0.50480800000000003</v>
+        <v>0</v>
       </c>
       <c r="K292" s="4">
         <v>0</v>
       </c>
       <c r="L292" s="4">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="M292" s="4">
         <v>0</v>
@@ -13477,10 +13471,10 @@
         <v>321</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>23</v>
@@ -13493,7 +13487,7 @@
         <v>45</v>
       </c>
       <c r="H293" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I293" s="5">
         <v>0</v>
@@ -13528,7 +13522,7 @@
       </c>
       <c r="G294" s="2"/>
       <c r="H294" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I294" s="5">
         <v>0</v>
@@ -13554,13 +13548,13 @@
     </row>
     <row r="295" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>23</v>
@@ -13573,7 +13567,7 @@
         <v>45</v>
       </c>
       <c r="H295" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I295" s="5">
         <v>0</v>
@@ -13608,7 +13602,7 @@
       </c>
       <c r="G296" s="2"/>
       <c r="H296" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I296" s="5">
         <v>0</v>
@@ -13634,38 +13628,38 @@
     </row>
     <row r="297" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>327</v>
+        <v>236</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E297" s="2"/>
       <c r="F297" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H297" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I297" s="5">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="J297" s="6">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K297" s="4">
         <v>0</v>
       </c>
       <c r="L297" s="4">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="M297" s="4">
         <v>0</v>
@@ -13688,19 +13682,19 @@
       </c>
       <c r="G298" s="2"/>
       <c r="H298" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I298" s="5">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="J298" s="6">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K298" s="4">
         <v>0</v>
       </c>
       <c r="L298" s="4">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="M298" s="4">
         <v>0</v>
@@ -13714,13 +13708,13 @@
     </row>
     <row r="299" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>23</v>
@@ -13736,16 +13730,16 @@
         <v>11</v>
       </c>
       <c r="I299" s="5">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="J299" s="6">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K299" s="4">
         <v>0</v>
       </c>
       <c r="L299" s="4">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="M299" s="4">
         <v>0</v>
@@ -13771,16 +13765,16 @@
         <v>11</v>
       </c>
       <c r="I300" s="5">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="J300" s="6">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K300" s="4">
         <v>0</v>
       </c>
       <c r="L300" s="4">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="M300" s="4">
         <v>0</v>
@@ -13794,13 +13788,13 @@
     </row>
     <row r="301" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>23</v>
@@ -13813,19 +13807,19 @@
         <v>31</v>
       </c>
       <c r="H301" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I301" s="5">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="J301" s="6">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="K301" s="4">
         <v>0</v>
       </c>
       <c r="L301" s="4">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="M301" s="4">
         <v>0</v>
@@ -13848,19 +13842,19 @@
       </c>
       <c r="G302" s="2"/>
       <c r="H302" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I302" s="5">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="J302" s="6">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="K302" s="4">
         <v>0</v>
       </c>
       <c r="L302" s="4">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="M302" s="4">
         <v>0</v>
@@ -13877,35 +13871,35 @@
         <v>331</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E303" s="2"/>
       <c r="F303" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H303" s="4">
-        <v>22</v>
+        <v>4144</v>
       </c>
       <c r="I303" s="5">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J303" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K303" s="4">
         <v>0</v>
       </c>
       <c r="L303" s="4">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M303" s="4">
         <v>0</v>
@@ -13928,19 +13922,19 @@
       </c>
       <c r="G304" s="2"/>
       <c r="H304" s="4">
-        <v>22</v>
+        <v>4144</v>
       </c>
       <c r="I304" s="5">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J304" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K304" s="4">
         <v>0</v>
       </c>
       <c r="L304" s="4">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M304" s="4">
         <v>0</v>
@@ -13954,13 +13948,13 @@
     </row>
     <row r="305" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>23</v>
@@ -13973,7 +13967,7 @@
         <v>45</v>
       </c>
       <c r="H305" s="4">
-        <v>4144</v>
+        <v>2</v>
       </c>
       <c r="I305" s="5">
         <v>0</v>
@@ -14008,7 +14002,7 @@
       </c>
       <c r="G306" s="2"/>
       <c r="H306" s="4">
-        <v>4144</v>
+        <v>2</v>
       </c>
       <c r="I306" s="5">
         <v>0</v>
@@ -14034,38 +14028,38 @@
     </row>
     <row r="307" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="E307" s="2"/>
       <c r="F307" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H307" s="4">
-        <v>2</v>
+        <v>490</v>
       </c>
       <c r="I307" s="5">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="J307" s="6">
-        <v>0</v>
+        <v>1.3326530000000001</v>
       </c>
       <c r="K307" s="4">
         <v>0</v>
       </c>
       <c r="L307" s="4">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="M307" s="4">
         <v>0</v>
@@ -14088,19 +14082,19 @@
       </c>
       <c r="G308" s="2"/>
       <c r="H308" s="4">
-        <v>2</v>
+        <v>490</v>
       </c>
       <c r="I308" s="5">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="J308" s="6">
-        <v>0</v>
+        <v>1.3326530000000001</v>
       </c>
       <c r="K308" s="4">
         <v>0</v>
       </c>
       <c r="L308" s="4">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="M308" s="4">
         <v>0</v>
@@ -14114,38 +14108,38 @@
     </row>
     <row r="309" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="C309" s="2" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="E309" s="2"/>
       <c r="F309" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H309" s="4">
-        <v>490</v>
+        <v>19</v>
       </c>
       <c r="I309" s="5">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="J309" s="6">
-        <v>1.3326530000000001</v>
+        <v>0</v>
       </c>
       <c r="K309" s="4">
         <v>0</v>
       </c>
       <c r="L309" s="4">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="M309" s="4">
         <v>0</v>
@@ -14168,19 +14162,19 @@
       </c>
       <c r="G310" s="2"/>
       <c r="H310" s="4">
-        <v>490</v>
+        <v>19</v>
       </c>
       <c r="I310" s="5">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="J310" s="6">
-        <v>1.3326530000000001</v>
+        <v>0</v>
       </c>
       <c r="K310" s="4">
         <v>0</v>
       </c>
       <c r="L310" s="4">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="M310" s="4">
         <v>0</v>
@@ -14194,10 +14188,10 @@
     </row>
     <row r="311" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>338</v>
@@ -14213,7 +14207,7 @@
         <v>55</v>
       </c>
       <c r="H311" s="4">
-        <v>19</v>
+        <v>10000</v>
       </c>
       <c r="I311" s="5">
         <v>0</v>
@@ -14248,7 +14242,7 @@
       </c>
       <c r="G312" s="2"/>
       <c r="H312" s="4">
-        <v>19</v>
+        <v>10000</v>
       </c>
       <c r="I312" s="5">
         <v>0</v>
@@ -14277,7 +14271,7 @@
         <v>339</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>340</v>
@@ -14293,7 +14287,7 @@
         <v>55</v>
       </c>
       <c r="H313" s="4">
-        <v>10000</v>
+        <v>2249</v>
       </c>
       <c r="I313" s="5">
         <v>0</v>
@@ -14328,7 +14322,7 @@
       </c>
       <c r="G314" s="2"/>
       <c r="H314" s="4">
-        <v>10000</v>
+        <v>2249</v>
       </c>
       <c r="I314" s="5">
         <v>0</v>
@@ -14357,10 +14351,10 @@
         <v>341</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>23</v>
@@ -14373,7 +14367,7 @@
         <v>55</v>
       </c>
       <c r="H315" s="4">
-        <v>3069</v>
+        <v>6324</v>
       </c>
       <c r="I315" s="5">
         <v>0</v>
@@ -14408,7 +14402,7 @@
       </c>
       <c r="G316" s="2"/>
       <c r="H316" s="4">
-        <v>3069</v>
+        <v>6324</v>
       </c>
       <c r="I316" s="5">
         <v>0</v>
@@ -14434,13 +14428,13 @@
     </row>
     <row r="317" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>23</v>
@@ -14453,7 +14447,7 @@
         <v>55</v>
       </c>
       <c r="H317" s="4">
-        <v>7964</v>
+        <v>10044</v>
       </c>
       <c r="I317" s="5">
         <v>0</v>
@@ -14488,7 +14482,7 @@
       </c>
       <c r="G318" s="2"/>
       <c r="H318" s="4">
-        <v>7964</v>
+        <v>10044</v>
       </c>
       <c r="I318" s="5">
         <v>0</v>
@@ -14514,10 +14508,10 @@
     </row>
     <row r="319" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>348</v>
@@ -14533,7 +14527,7 @@
         <v>55</v>
       </c>
       <c r="H319" s="4">
-        <v>16604</v>
+        <v>152640</v>
       </c>
       <c r="I319" s="5">
         <v>0</v>
@@ -14568,7 +14562,7 @@
       </c>
       <c r="G320" s="2"/>
       <c r="H320" s="4">
-        <v>16604</v>
+        <v>152640</v>
       </c>
       <c r="I320" s="5">
         <v>0</v>
@@ -14597,7 +14591,7 @@
         <v>349</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>350</v>
@@ -14613,7 +14607,7 @@
         <v>55</v>
       </c>
       <c r="H321" s="4">
-        <v>165760</v>
+        <v>3208</v>
       </c>
       <c r="I321" s="5">
         <v>0</v>
@@ -14648,7 +14642,7 @@
       </c>
       <c r="G322" s="2"/>
       <c r="H322" s="4">
-        <v>165760</v>
+        <v>3208</v>
       </c>
       <c r="I322" s="5">
         <v>0</v>
@@ -14677,7 +14671,7 @@
         <v>351</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>197</v>
+        <v>306</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>352</v>
@@ -14693,7 +14687,7 @@
         <v>55</v>
       </c>
       <c r="H323" s="4">
-        <v>6488</v>
+        <v>89870</v>
       </c>
       <c r="I323" s="5">
         <v>0</v>
@@ -14728,7 +14722,7 @@
       </c>
       <c r="G324" s="2"/>
       <c r="H324" s="4">
-        <v>6488</v>
+        <v>89870</v>
       </c>
       <c r="I324" s="5">
         <v>0</v>
@@ -14757,10 +14751,10 @@
         <v>353</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>23</v>
@@ -14773,7 +14767,7 @@
         <v>55</v>
       </c>
       <c r="H325" s="4">
-        <v>102990</v>
+        <v>18360</v>
       </c>
       <c r="I325" s="5">
         <v>0</v>
@@ -14808,7 +14802,7 @@
       </c>
       <c r="G326" s="2"/>
       <c r="H326" s="4">
-        <v>102990</v>
+        <v>18360</v>
       </c>
       <c r="I326" s="5">
         <v>0</v>
@@ -14834,13 +14828,13 @@
     </row>
     <row r="327" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>23</v>
@@ -14853,7 +14847,7 @@
         <v>55</v>
       </c>
       <c r="H327" s="4">
-        <v>19180</v>
+        <v>16480</v>
       </c>
       <c r="I327" s="5">
         <v>0</v>
@@ -14888,7 +14882,7 @@
       </c>
       <c r="G328" s="2"/>
       <c r="H328" s="4">
-        <v>19180</v>
+        <v>16480</v>
       </c>
       <c r="I328" s="5">
         <v>0</v>
@@ -14914,13 +14908,13 @@
     </row>
     <row r="329" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>23</v>
@@ -14933,7 +14927,7 @@
         <v>55</v>
       </c>
       <c r="H329" s="4">
-        <v>17300</v>
+        <v>3492</v>
       </c>
       <c r="I329" s="5">
         <v>0</v>
@@ -14968,7 +14962,7 @@
       </c>
       <c r="G330" s="2"/>
       <c r="H330" s="4">
-        <v>17300</v>
+        <v>3492</v>
       </c>
       <c r="I330" s="5">
         <v>0</v>
@@ -14997,13 +14991,13 @@
         <v>357</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="E331" s="2"/>
       <c r="F331" s="2" t="s">
@@ -15013,7 +15007,7 @@
         <v>55</v>
       </c>
       <c r="H331" s="4">
-        <v>8412</v>
+        <v>38</v>
       </c>
       <c r="I331" s="5">
         <v>0</v>
@@ -15048,7 +15042,7 @@
       </c>
       <c r="G332" s="2"/>
       <c r="H332" s="4">
-        <v>8412</v>
+        <v>38</v>
       </c>
       <c r="I332" s="5">
         <v>0</v>
@@ -15074,112 +15068,112 @@
     </row>
     <row r="333" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D333" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="D333" s="2"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G333" s="2"/>
+      <c r="H333" s="4">
+        <v>327365</v>
+      </c>
+      <c r="I333" s="5">
+        <v>71283</v>
+      </c>
+      <c r="J333" s="2"/>
+      <c r="K333" s="4">
+        <v>0</v>
+      </c>
+      <c r="L333" s="4">
+        <v>71283</v>
+      </c>
+      <c r="M333" s="4">
+        <v>0</v>
+      </c>
+      <c r="N333" s="4">
+        <v>0</v>
+      </c>
+      <c r="O333" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A334" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E334" s="8"/>
+      <c r="F334" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G333" s="2" t="s">
+      <c r="G334" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H333" s="4">
-        <v>38</v>
-      </c>
-      <c r="I333" s="5">
-        <v>0</v>
-      </c>
-      <c r="J333" s="6">
-        <v>0</v>
-      </c>
-      <c r="K333" s="4">
-        <v>0</v>
-      </c>
-      <c r="L333" s="4">
-        <v>0</v>
-      </c>
-      <c r="M333" s="4">
-        <v>0</v>
-      </c>
-      <c r="N333" s="4">
-        <v>0</v>
-      </c>
-      <c r="O333" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="F334" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G334" s="2"/>
-      <c r="H334" s="4">
-        <v>38</v>
-      </c>
-      <c r="I334" s="5">
-        <v>0</v>
-      </c>
-      <c r="J334" s="6">
-        <v>0</v>
-      </c>
-      <c r="K334" s="4">
-        <v>0</v>
-      </c>
-      <c r="L334" s="4">
-        <v>0</v>
-      </c>
-      <c r="M334" s="4">
-        <v>0</v>
-      </c>
-      <c r="N334" s="4">
-        <v>0</v>
-      </c>
-      <c r="O334" s="4">
+      <c r="H334" s="9">
+        <v>2</v>
+      </c>
+      <c r="I334" s="10">
+        <v>0</v>
+      </c>
+      <c r="J334" s="11">
+        <v>0</v>
+      </c>
+      <c r="K334" s="9">
+        <v>0</v>
+      </c>
+      <c r="L334" s="9">
+        <v>0</v>
+      </c>
+      <c r="M334" s="9">
+        <v>0</v>
+      </c>
+      <c r="N334" s="9">
+        <v>0</v>
+      </c>
+      <c r="O334" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A335" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="A335" s="2"/>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="G335" s="2"/>
       <c r="H335" s="4">
-        <v>372465</v>
+        <v>2</v>
       </c>
       <c r="I335" s="5">
-        <v>71283</v>
-      </c>
-      <c r="J335" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J335" s="6">
+        <v>0</v>
+      </c>
       <c r="K335" s="4">
         <v>0</v>
       </c>
       <c r="L335" s="4">
-        <v>71283</v>
+        <v>0</v>
       </c>
       <c r="M335" s="4">
         <v>0</v>
@@ -15192,47 +15186,47 @@
       </c>
     </row>
     <row r="336" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A336" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B336" s="8" t="s">
+      <c r="A336" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D336" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C336" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E336" s="8"/>
-      <c r="F336" s="8" t="s">
+      <c r="E336" s="2"/>
+      <c r="F336" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G336" s="8" t="s">
+      <c r="G336" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H336" s="9">
-        <v>2</v>
-      </c>
-      <c r="I336" s="10">
-        <v>0</v>
-      </c>
-      <c r="J336" s="11">
-        <v>0</v>
-      </c>
-      <c r="K336" s="9">
-        <v>0</v>
-      </c>
-      <c r="L336" s="9">
-        <v>0</v>
-      </c>
-      <c r="M336" s="9">
-        <v>0</v>
-      </c>
-      <c r="N336" s="9">
-        <v>0</v>
-      </c>
-      <c r="O336" s="9">
+      <c r="H336" s="4">
+        <v>15</v>
+      </c>
+      <c r="I336" s="5">
+        <v>0</v>
+      </c>
+      <c r="J336" s="6">
+        <v>0</v>
+      </c>
+      <c r="K336" s="4">
+        <v>0</v>
+      </c>
+      <c r="L336" s="4">
+        <v>0</v>
+      </c>
+      <c r="M336" s="4">
+        <v>0</v>
+      </c>
+      <c r="N336" s="4">
+        <v>0</v>
+      </c>
+      <c r="O336" s="4">
         <v>0</v>
       </c>
     </row>
@@ -15247,7 +15241,7 @@
       </c>
       <c r="G337" s="2"/>
       <c r="H337" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I337" s="5">
         <v>0</v>
@@ -15273,16 +15267,16 @@
     </row>
     <row r="338" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E338" s="2"/>
       <c r="F338" s="2" t="s">
@@ -15292,7 +15286,7 @@
         <v>55</v>
       </c>
       <c r="H338" s="4">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="I338" s="5">
         <v>0</v>
@@ -15327,7 +15321,7 @@
       </c>
       <c r="G339" s="2"/>
       <c r="H339" s="4">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="I339" s="5">
         <v>0</v>
@@ -15353,7 +15347,7 @@
     </row>
     <row r="340" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>372</v>
+        <v>279</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>373</v>
@@ -15361,99 +15355,99 @@
       <c r="C340" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D340" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="D340" s="2"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G340" s="2"/>
+      <c r="H340" s="4">
+        <v>130</v>
+      </c>
+      <c r="I340" s="5">
+        <v>0</v>
+      </c>
+      <c r="J340" s="2"/>
+      <c r="K340" s="4">
+        <v>0</v>
+      </c>
+      <c r="L340" s="4">
+        <v>0</v>
+      </c>
+      <c r="M340" s="4">
+        <v>0</v>
+      </c>
+      <c r="N340" s="4">
+        <v>0</v>
+      </c>
+      <c r="O340" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A341" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D341" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E341" s="8"/>
+      <c r="F341" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G340" s="2" t="s">
+      <c r="G341" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H340" s="4">
-        <v>113</v>
-      </c>
-      <c r="I340" s="5">
-        <v>0</v>
-      </c>
-      <c r="J340" s="6">
-        <v>0</v>
-      </c>
-      <c r="K340" s="4">
-        <v>0</v>
-      </c>
-      <c r="L340" s="4">
-        <v>0</v>
-      </c>
-      <c r="M340" s="4">
-        <v>0</v>
-      </c>
-      <c r="N340" s="4">
-        <v>0</v>
-      </c>
-      <c r="O340" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
-      <c r="F341" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G341" s="2"/>
-      <c r="H341" s="4">
-        <v>113</v>
-      </c>
-      <c r="I341" s="5">
-        <v>0</v>
-      </c>
-      <c r="J341" s="6">
-        <v>0</v>
-      </c>
-      <c r="K341" s="4">
-        <v>0</v>
-      </c>
-      <c r="L341" s="4">
-        <v>0</v>
-      </c>
-      <c r="M341" s="4">
-        <v>0</v>
-      </c>
-      <c r="N341" s="4">
-        <v>0</v>
-      </c>
-      <c r="O341" s="4">
+      <c r="H341" s="9">
+        <v>19</v>
+      </c>
+      <c r="I341" s="10">
+        <v>0</v>
+      </c>
+      <c r="J341" s="11">
+        <v>0</v>
+      </c>
+      <c r="K341" s="9">
+        <v>0</v>
+      </c>
+      <c r="L341" s="9">
+        <v>0</v>
+      </c>
+      <c r="M341" s="9">
+        <v>0</v>
+      </c>
+      <c r="N341" s="9">
+        <v>0</v>
+      </c>
+      <c r="O341" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A342" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>376</v>
-      </c>
+      <c r="A342" s="2"/>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="G342" s="2"/>
       <c r="H342" s="4">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="I342" s="5">
         <v>0</v>
       </c>
-      <c r="J342" s="2"/>
+      <c r="J342" s="6">
+        <v>0</v>
+      </c>
       <c r="K342" s="4">
         <v>0</v>
       </c>
@@ -15471,47 +15465,47 @@
       </c>
     </row>
     <row r="343" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A343" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B343" s="8" t="s">
+      <c r="A343" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C343" s="8" t="s">
+      <c r="B343" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D343" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E343" s="8"/>
-      <c r="F343" s="8" t="s">
+      <c r="D343" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G343" s="8" t="s">
+      <c r="G343" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H343" s="9">
-        <v>19</v>
-      </c>
-      <c r="I343" s="10">
-        <v>0</v>
-      </c>
-      <c r="J343" s="11">
-        <v>0</v>
-      </c>
-      <c r="K343" s="9">
-        <v>0</v>
-      </c>
-      <c r="L343" s="9">
-        <v>0</v>
-      </c>
-      <c r="M343" s="9">
-        <v>0</v>
-      </c>
-      <c r="N343" s="9">
-        <v>0</v>
-      </c>
-      <c r="O343" s="9">
+      <c r="H343" s="4">
+        <v>20</v>
+      </c>
+      <c r="I343" s="5">
+        <v>0</v>
+      </c>
+      <c r="J343" s="6">
+        <v>0</v>
+      </c>
+      <c r="K343" s="4">
+        <v>0</v>
+      </c>
+      <c r="L343" s="4">
+        <v>0</v>
+      </c>
+      <c r="M343" s="4">
+        <v>0</v>
+      </c>
+      <c r="N343" s="4">
+        <v>0</v>
+      </c>
+      <c r="O343" s="4">
         <v>0</v>
       </c>
     </row>
@@ -15526,7 +15520,7 @@
       </c>
       <c r="G344" s="2"/>
       <c r="H344" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I344" s="5">
         <v>0</v>
@@ -15555,29 +15549,29 @@
         <v>380</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>381</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E345" s="2"/>
       <c r="F345" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H345" s="4">
-        <v>20</v>
+        <v>774</v>
       </c>
       <c r="I345" s="5">
-        <v>0</v>
+        <v>1003693</v>
       </c>
       <c r="J345" s="6">
-        <v>0</v>
+        <v>1296.760982</v>
       </c>
       <c r="K345" s="4">
         <v>0</v>
@@ -15586,10 +15580,10 @@
         <v>0</v>
       </c>
       <c r="M345" s="4">
-        <v>0</v>
+        <v>168704</v>
       </c>
       <c r="N345" s="4">
-        <v>0</v>
+        <v>834989</v>
       </c>
       <c r="O345" s="4">
         <v>0</v>
@@ -15606,13 +15600,13 @@
       </c>
       <c r="G346" s="2"/>
       <c r="H346" s="4">
-        <v>20</v>
+        <v>774</v>
       </c>
       <c r="I346" s="5">
-        <v>0</v>
+        <v>1003693</v>
       </c>
       <c r="J346" s="6">
-        <v>0</v>
+        <v>1296.760982</v>
       </c>
       <c r="K346" s="4">
         <v>0</v>
@@ -15621,10 +15615,10 @@
         <v>0</v>
       </c>
       <c r="M346" s="4">
-        <v>0</v>
+        <v>168704</v>
       </c>
       <c r="N346" s="4">
-        <v>0</v>
+        <v>834989</v>
       </c>
       <c r="O346" s="4">
         <v>0</v>
@@ -15635,13 +15629,13 @@
         <v>382</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E347" s="2"/>
       <c r="F347" s="2" t="s">
@@ -15651,25 +15645,25 @@
         <v>31</v>
       </c>
       <c r="H347" s="4">
-        <v>774</v>
+        <v>267</v>
       </c>
       <c r="I347" s="5">
-        <v>1003693</v>
+        <v>480529</v>
       </c>
       <c r="J347" s="6">
-        <v>1296.760982</v>
+        <v>1799.7340819999999</v>
       </c>
       <c r="K347" s="4">
         <v>0</v>
       </c>
-      <c r="L347" s="4">
-        <v>0</v>
+      <c r="L347" s="12">
+        <v>-1</v>
       </c>
       <c r="M347" s="4">
-        <v>168704</v>
+        <v>87470</v>
       </c>
       <c r="N347" s="4">
-        <v>834989</v>
+        <v>393060</v>
       </c>
       <c r="O347" s="4">
         <v>0</v>
@@ -15686,25 +15680,25 @@
       </c>
       <c r="G348" s="2"/>
       <c r="H348" s="4">
-        <v>774</v>
+        <v>267</v>
       </c>
       <c r="I348" s="5">
-        <v>1003693</v>
+        <v>480529</v>
       </c>
       <c r="J348" s="6">
-        <v>1296.760982</v>
+        <v>1799.7340819999999</v>
       </c>
       <c r="K348" s="4">
         <v>0</v>
       </c>
-      <c r="L348" s="4">
-        <v>0</v>
+      <c r="L348" s="12">
+        <v>-1</v>
       </c>
       <c r="M348" s="4">
-        <v>168704</v>
+        <v>87470</v>
       </c>
       <c r="N348" s="4">
-        <v>834989</v>
+        <v>393060</v>
       </c>
       <c r="O348" s="4">
         <v>0</v>
@@ -15712,16 +15706,16 @@
     </row>
     <row r="349" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>386</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E349" s="2"/>
       <c r="F349" s="2" t="s">
@@ -15731,25 +15725,25 @@
         <v>31</v>
       </c>
       <c r="H349" s="4">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="I349" s="5">
-        <v>480529</v>
+        <v>13312</v>
       </c>
       <c r="J349" s="6">
-        <v>1799.7340819999999</v>
+        <v>950.85714299999995</v>
       </c>
       <c r="K349" s="4">
         <v>0</v>
       </c>
-      <c r="L349" s="12">
-        <v>-1</v>
+      <c r="L349" s="4">
+        <v>0</v>
       </c>
       <c r="M349" s="4">
-        <v>87470</v>
+        <v>2189</v>
       </c>
       <c r="N349" s="4">
-        <v>393060</v>
+        <v>11123</v>
       </c>
       <c r="O349" s="4">
         <v>0</v>
@@ -15766,25 +15760,25 @@
       </c>
       <c r="G350" s="2"/>
       <c r="H350" s="4">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="I350" s="5">
-        <v>480529</v>
+        <v>13312</v>
       </c>
       <c r="J350" s="6">
-        <v>1799.7340819999999</v>
+        <v>950.85714299999995</v>
       </c>
       <c r="K350" s="4">
         <v>0</v>
       </c>
-      <c r="L350" s="12">
-        <v>-1</v>
+      <c r="L350" s="4">
+        <v>0</v>
       </c>
       <c r="M350" s="4">
-        <v>87470</v>
+        <v>2189</v>
       </c>
       <c r="N350" s="4">
-        <v>393060</v>
+        <v>11123</v>
       </c>
       <c r="O350" s="4">
         <v>0</v>
@@ -15795,13 +15789,13 @@
         <v>387</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>388</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E351" s="2"/>
       <c r="F351" s="2" t="s">
@@ -15811,13 +15805,13 @@
         <v>31</v>
       </c>
       <c r="H351" s="4">
-        <v>14</v>
+        <v>1684</v>
       </c>
       <c r="I351" s="5">
-        <v>13312</v>
+        <v>1597718</v>
       </c>
       <c r="J351" s="6">
-        <v>950.85714299999995</v>
+        <v>948.76365799999996</v>
       </c>
       <c r="K351" s="4">
         <v>0</v>
@@ -15826,10 +15820,10 @@
         <v>0</v>
       </c>
       <c r="M351" s="4">
-        <v>2189</v>
+        <v>261399</v>
       </c>
       <c r="N351" s="4">
-        <v>11123</v>
+        <v>1336319</v>
       </c>
       <c r="O351" s="4">
         <v>0</v>
@@ -15846,13 +15840,13 @@
       </c>
       <c r="G352" s="2"/>
       <c r="H352" s="4">
-        <v>14</v>
+        <v>1684</v>
       </c>
       <c r="I352" s="5">
-        <v>13312</v>
+        <v>1597718</v>
       </c>
       <c r="J352" s="6">
-        <v>950.85714299999995</v>
+        <v>948.76365799999996</v>
       </c>
       <c r="K352" s="4">
         <v>0</v>
@@ -15861,10 +15855,10 @@
         <v>0</v>
       </c>
       <c r="M352" s="4">
-        <v>2189</v>
+        <v>261399</v>
       </c>
       <c r="N352" s="4">
-        <v>11123</v>
+        <v>1336319</v>
       </c>
       <c r="O352" s="4">
         <v>0</v>
@@ -15875,13 +15869,13 @@
         <v>389</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>390</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E353" s="2"/>
       <c r="F353" s="2" t="s">
@@ -15891,13 +15885,13 @@
         <v>31</v>
       </c>
       <c r="H353" s="4">
-        <v>1684</v>
+        <v>1624</v>
       </c>
       <c r="I353" s="5">
-        <v>1597718</v>
+        <v>1583988</v>
       </c>
       <c r="J353" s="6">
-        <v>948.76365799999996</v>
+        <v>975.36206900000002</v>
       </c>
       <c r="K353" s="4">
         <v>0</v>
@@ -15906,10 +15900,10 @@
         <v>0</v>
       </c>
       <c r="M353" s="4">
-        <v>261399</v>
+        <v>253090</v>
       </c>
       <c r="N353" s="4">
-        <v>1336319</v>
+        <v>1330898</v>
       </c>
       <c r="O353" s="4">
         <v>0</v>
@@ -15926,13 +15920,13 @@
       </c>
       <c r="G354" s="2"/>
       <c r="H354" s="4">
-        <v>1684</v>
+        <v>1624</v>
       </c>
       <c r="I354" s="5">
-        <v>1597718</v>
+        <v>1583988</v>
       </c>
       <c r="J354" s="6">
-        <v>948.76365799999996</v>
+        <v>975.36206900000002</v>
       </c>
       <c r="K354" s="4">
         <v>0</v>
@@ -15941,10 +15935,10 @@
         <v>0</v>
       </c>
       <c r="M354" s="4">
-        <v>261399</v>
+        <v>253090</v>
       </c>
       <c r="N354" s="4">
-        <v>1336319</v>
+        <v>1330898</v>
       </c>
       <c r="O354" s="4">
         <v>0</v>
@@ -15955,13 +15949,13 @@
         <v>391</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E355" s="2"/>
       <c r="F355" s="2" t="s">
@@ -15971,13 +15965,13 @@
         <v>31</v>
       </c>
       <c r="H355" s="4">
-        <v>1624</v>
+        <v>6</v>
       </c>
       <c r="I355" s="5">
-        <v>1583988</v>
+        <v>213987</v>
       </c>
       <c r="J355" s="6">
-        <v>975.36206900000002</v>
+        <v>35664.5</v>
       </c>
       <c r="K355" s="4">
         <v>0</v>
@@ -15986,10 +15980,10 @@
         <v>0</v>
       </c>
       <c r="M355" s="4">
-        <v>253090</v>
+        <v>32691</v>
       </c>
       <c r="N355" s="4">
-        <v>1330898</v>
+        <v>181296</v>
       </c>
       <c r="O355" s="4">
         <v>0</v>
@@ -16006,13 +16000,13 @@
       </c>
       <c r="G356" s="2"/>
       <c r="H356" s="4">
-        <v>1624</v>
+        <v>6</v>
       </c>
       <c r="I356" s="5">
-        <v>1583988</v>
+        <v>213987</v>
       </c>
       <c r="J356" s="6">
-        <v>975.36206900000002</v>
+        <v>35664.5</v>
       </c>
       <c r="K356" s="4">
         <v>0</v>
@@ -16021,10 +16015,10 @@
         <v>0</v>
       </c>
       <c r="M356" s="4">
-        <v>253090</v>
+        <v>32691</v>
       </c>
       <c r="N356" s="4">
-        <v>1330898</v>
+        <v>181296</v>
       </c>
       <c r="O356" s="4">
         <v>0</v>
@@ -16032,16 +16026,16 @@
     </row>
     <row r="357" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="D357" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E357" s="2"/>
       <c r="F357" s="2" t="s">
@@ -16051,13 +16045,13 @@
         <v>31</v>
       </c>
       <c r="H357" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I357" s="5">
-        <v>213987</v>
+        <v>751464</v>
       </c>
       <c r="J357" s="6">
-        <v>35664.5</v>
+        <v>46966.5</v>
       </c>
       <c r="K357" s="4">
         <v>0</v>
@@ -16066,10 +16060,10 @@
         <v>0</v>
       </c>
       <c r="M357" s="4">
-        <v>32691</v>
+        <v>117264</v>
       </c>
       <c r="N357" s="4">
-        <v>181296</v>
+        <v>634200</v>
       </c>
       <c r="O357" s="4">
         <v>0</v>
@@ -16086,13 +16080,13 @@
       </c>
       <c r="G358" s="2"/>
       <c r="H358" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I358" s="5">
-        <v>213987</v>
+        <v>751464</v>
       </c>
       <c r="J358" s="6">
-        <v>35664.5</v>
+        <v>46966.5</v>
       </c>
       <c r="K358" s="4">
         <v>0</v>
@@ -16101,10 +16095,10 @@
         <v>0</v>
       </c>
       <c r="M358" s="4">
-        <v>32691</v>
+        <v>117264</v>
       </c>
       <c r="N358" s="4">
-        <v>181296</v>
+        <v>634200</v>
       </c>
       <c r="O358" s="4">
         <v>0</v>
@@ -16112,436 +16106,356 @@
     </row>
     <row r="359" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="D359" s="2"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G359" s="2"/>
       <c r="H359" s="4">
-        <v>16</v>
+        <v>4424</v>
       </c>
       <c r="I359" s="5">
-        <v>751464</v>
-      </c>
-      <c r="J359" s="6">
-        <v>46966.5</v>
-      </c>
+        <v>5644691</v>
+      </c>
+      <c r="J359" s="2"/>
       <c r="K359" s="4">
         <v>0</v>
       </c>
-      <c r="L359" s="4">
-        <v>0</v>
+      <c r="L359" s="12">
+        <v>-1</v>
       </c>
       <c r="M359" s="4">
-        <v>117264</v>
+        <v>922807</v>
       </c>
       <c r="N359" s="4">
-        <v>634200</v>
+        <v>4721885</v>
       </c>
       <c r="O359" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G360" s="2"/>
-      <c r="H360" s="4">
-        <v>16</v>
-      </c>
-      <c r="I360" s="5">
-        <v>751464</v>
-      </c>
-      <c r="J360" s="6">
-        <v>46966.5</v>
-      </c>
-      <c r="K360" s="4">
-        <v>0</v>
-      </c>
-      <c r="L360" s="4">
-        <v>0</v>
-      </c>
-      <c r="M360" s="4">
-        <v>117264</v>
-      </c>
-      <c r="N360" s="4">
-        <v>634200</v>
-      </c>
-      <c r="O360" s="4">
+      <c r="A360" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E360" s="8"/>
+      <c r="F360" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G360" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="H360" s="9">
+        <v>1</v>
+      </c>
+      <c r="I360" s="10">
+        <v>0</v>
+      </c>
+      <c r="J360" s="11">
+        <v>0</v>
+      </c>
+      <c r="K360" s="9">
+        <v>0</v>
+      </c>
+      <c r="L360" s="9">
+        <v>0</v>
+      </c>
+      <c r="M360" s="9">
+        <v>0</v>
+      </c>
+      <c r="N360" s="9">
+        <v>0</v>
+      </c>
+      <c r="O360" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A361" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>398</v>
-      </c>
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="G361" s="2"/>
       <c r="H361" s="4">
+        <v>1</v>
+      </c>
+      <c r="I361" s="5">
+        <v>0</v>
+      </c>
+      <c r="J361" s="6">
+        <v>0</v>
+      </c>
+      <c r="K361" s="4">
+        <v>0</v>
+      </c>
+      <c r="L361" s="4">
+        <v>0</v>
+      </c>
+      <c r="M361" s="4">
+        <v>0</v>
+      </c>
+      <c r="N361" s="4">
+        <v>0</v>
+      </c>
+      <c r="O361" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G362" s="2"/>
+      <c r="H362" s="4">
+        <v>1</v>
+      </c>
+      <c r="I362" s="5">
+        <v>0</v>
+      </c>
+      <c r="J362" s="2"/>
+      <c r="K362" s="4">
+        <v>0</v>
+      </c>
+      <c r="L362" s="4">
+        <v>0</v>
+      </c>
+      <c r="M362" s="4">
+        <v>0</v>
+      </c>
+      <c r="N362" s="4">
+        <v>0</v>
+      </c>
+      <c r="O362" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A363" s="8"/>
+      <c r="B363" s="8"/>
+      <c r="C363" s="8"/>
+      <c r="D363" s="8"/>
+      <c r="E363" s="8"/>
+      <c r="F363" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G363" s="8"/>
+      <c r="H363" s="9">
+        <v>634557</v>
+      </c>
+      <c r="I363" s="10">
+        <v>5720002</v>
+      </c>
+      <c r="J363" s="8"/>
+      <c r="K363" s="9">
+        <v>0</v>
+      </c>
+      <c r="L363" s="9">
+        <v>75310</v>
+      </c>
+      <c r="M363" s="9">
+        <v>922807</v>
+      </c>
+      <c r="N363" s="9">
+        <v>4721885</v>
+      </c>
+      <c r="O363" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A364" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B364" s="8"/>
+      <c r="C364" s="8"/>
+      <c r="D364" s="8"/>
+      <c r="E364" s="8"/>
+      <c r="F364" s="8"/>
+      <c r="G364" s="8"/>
+      <c r="H364" s="9">
+        <v>1</v>
+      </c>
+      <c r="I364" s="10">
+        <v>0</v>
+      </c>
+      <c r="J364" s="8"/>
+      <c r="K364" s="9">
+        <v>0</v>
+      </c>
+      <c r="L364" s="9">
+        <v>0</v>
+      </c>
+      <c r="M364" s="9">
+        <v>0</v>
+      </c>
+      <c r="N364" s="9">
+        <v>0</v>
+      </c>
+      <c r="O364" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
+      <c r="H365" s="4">
         <v>4424</v>
       </c>
-      <c r="I361" s="5">
+      <c r="I365" s="5">
         <v>5644691</v>
       </c>
-      <c r="J361" s="2"/>
-      <c r="K361" s="4">
-        <v>0</v>
-      </c>
-      <c r="L361" s="12">
+      <c r="J365" s="2"/>
+      <c r="K365" s="4">
+        <v>0</v>
+      </c>
+      <c r="L365" s="12">
         <v>-1</v>
       </c>
-      <c r="M361" s="4">
+      <c r="M365" s="4">
         <v>922807</v>
       </c>
-      <c r="N361" s="4">
+      <c r="N365" s="4">
         <v>4721885</v>
       </c>
-      <c r="O361" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A362" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C362" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="D362" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E362" s="8"/>
-      <c r="F362" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G362" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="H362" s="9">
-        <v>1</v>
-      </c>
-      <c r="I362" s="10">
-        <v>0</v>
-      </c>
-      <c r="J362" s="11">
-        <v>0</v>
-      </c>
-      <c r="K362" s="9">
-        <v>0</v>
-      </c>
-      <c r="L362" s="9">
-        <v>0</v>
-      </c>
-      <c r="M362" s="9">
-        <v>0</v>
-      </c>
-      <c r="N362" s="9">
-        <v>0</v>
-      </c>
-      <c r="O362" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G363" s="2"/>
-      <c r="H363" s="4">
-        <v>1</v>
-      </c>
-      <c r="I363" s="5">
-        <v>0</v>
-      </c>
-      <c r="J363" s="6">
-        <v>0</v>
-      </c>
-      <c r="K363" s="4">
-        <v>0</v>
-      </c>
-      <c r="L363" s="4">
-        <v>0</v>
-      </c>
-      <c r="M363" s="4">
-        <v>0</v>
-      </c>
-      <c r="N363" s="4">
-        <v>0</v>
-      </c>
-      <c r="O363" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A364" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C364" s="2" t="s">
+      <c r="O365" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
-      <c r="F364" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G364" s="2"/>
-      <c r="H364" s="4">
-        <v>1</v>
-      </c>
-      <c r="I364" s="5">
-        <v>0</v>
-      </c>
-      <c r="J364" s="2"/>
-      <c r="K364" s="4">
-        <v>0</v>
-      </c>
-      <c r="L364" s="4">
-        <v>0</v>
-      </c>
-      <c r="M364" s="4">
-        <v>0</v>
-      </c>
-      <c r="N364" s="4">
-        <v>0</v>
-      </c>
-      <c r="O364" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A365" s="8"/>
-      <c r="B365" s="8"/>
-      <c r="C365" s="8"/>
-      <c r="D365" s="8"/>
-      <c r="E365" s="8"/>
-      <c r="F365" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="G365" s="8"/>
-      <c r="H365" s="9">
-        <v>713660</v>
-      </c>
-      <c r="I365" s="10">
-        <v>5720002</v>
-      </c>
-      <c r="J365" s="8"/>
-      <c r="K365" s="9">
-        <v>0</v>
-      </c>
-      <c r="L365" s="9">
-        <v>75310</v>
-      </c>
-      <c r="M365" s="9">
-        <v>922807</v>
-      </c>
-      <c r="N365" s="9">
-        <v>4721885</v>
-      </c>
-      <c r="O365" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A366" s="8" t="s">
+      <c r="B366" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B366" s="8"/>
-      <c r="C366" s="8"/>
-      <c r="D366" s="8"/>
-      <c r="E366" s="8"/>
-      <c r="F366" s="8"/>
-      <c r="G366" s="8"/>
-      <c r="H366" s="9">
-        <v>1</v>
-      </c>
-      <c r="I366" s="10">
-        <v>0</v>
-      </c>
-      <c r="J366" s="8"/>
-      <c r="K366" s="9">
-        <v>0</v>
-      </c>
-      <c r="L366" s="9">
-        <v>0</v>
-      </c>
-      <c r="M366" s="9">
-        <v>0</v>
-      </c>
-      <c r="N366" s="9">
-        <v>0</v>
-      </c>
-      <c r="O366" s="9">
+      <c r="C366" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
+      <c r="H366" s="4">
+        <v>130</v>
+      </c>
+      <c r="I366" s="5">
+        <v>0</v>
+      </c>
+      <c r="J366" s="2"/>
+      <c r="K366" s="4">
+        <v>0</v>
+      </c>
+      <c r="L366" s="4">
+        <v>0</v>
+      </c>
+      <c r="M366" s="4">
+        <v>0</v>
+      </c>
+      <c r="N366" s="4">
+        <v>0</v>
+      </c>
+      <c r="O366" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>398</v>
+        <v>281</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
       <c r="H367" s="4">
-        <v>4424</v>
+        <v>630002</v>
       </c>
       <c r="I367" s="5">
-        <v>5644691</v>
+        <v>75311</v>
       </c>
       <c r="J367" s="2"/>
       <c r="K367" s="4">
         <v>0</v>
       </c>
-      <c r="L367" s="12">
-        <v>-1</v>
+      <c r="L367" s="4">
+        <v>75311</v>
       </c>
       <c r="M367" s="4">
-        <v>922807</v>
+        <v>0</v>
       </c>
       <c r="N367" s="4">
-        <v>4721885</v>
+        <v>0</v>
       </c>
       <c r="O367" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A368" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B368" s="2" t="s">
+    <row r="368" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A368" s="7"/>
+      <c r="B368" s="7"/>
+      <c r="C368" s="7"/>
+      <c r="D368" s="7"/>
+      <c r="E368" s="7"/>
+      <c r="F368" s="7"/>
+      <c r="G368" s="7"/>
+      <c r="H368" s="7"/>
+      <c r="I368" s="7"/>
+      <c r="J368" s="7"/>
+      <c r="K368" s="7"/>
+      <c r="L368" s="7"/>
+      <c r="M368" s="7"/>
+      <c r="N368" s="7"/>
+      <c r="O368" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-      <c r="H368" s="4">
-        <v>130</v>
-      </c>
-      <c r="I368" s="5">
-        <v>0</v>
-      </c>
-      <c r="J368" s="2"/>
-      <c r="K368" s="4">
-        <v>0</v>
-      </c>
-      <c r="L368" s="4">
-        <v>0</v>
-      </c>
-      <c r="M368" s="4">
-        <v>0</v>
-      </c>
-      <c r="N368" s="4">
-        <v>0</v>
-      </c>
-      <c r="O368" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A369" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
-      <c r="G369" s="2"/>
-      <c r="H369" s="4">
-        <v>709105</v>
-      </c>
-      <c r="I369" s="5">
-        <v>75311</v>
-      </c>
-      <c r="J369" s="2"/>
-      <c r="K369" s="4">
-        <v>0</v>
-      </c>
-      <c r="L369" s="4">
-        <v>75311</v>
-      </c>
-      <c r="M369" s="4">
-        <v>0</v>
-      </c>
-      <c r="N369" s="4">
-        <v>0</v>
-      </c>
-      <c r="O369" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
-      <c r="C370" s="7"/>
-      <c r="D370" s="7"/>
-      <c r="E370" s="7"/>
-      <c r="F370" s="7"/>
-      <c r="G370" s="7"/>
-      <c r="H370" s="7"/>
-      <c r="I370" s="7"/>
-      <c r="J370" s="7"/>
-      <c r="K370" s="7"/>
-      <c r="L370" s="7"/>
-      <c r="M370" s="7"/>
-      <c r="N370" s="7"/>
-      <c r="O370" s="13" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
